--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2158692.458034737</v>
+        <v>2274278.584357216</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12453847.07671752</v>
+        <v>12448913.88118193</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9534748.512108834</v>
+        <v>9535752.105159616</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="G2" t="n">
-        <v>13.00882974444866</v>
+        <v>211.2228407230371</v>
       </c>
       <c r="H2" t="n">
-        <v>213.2445435269807</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.418838249904942</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>5.774433940770336</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>156.7476462617291</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>213.2445435269807</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="W2" t="n">
-        <v>213.2445435269807</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>30.01895306101777</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -783,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.95454262003122</v>
+        <v>20.90078060183515</v>
       </c>
       <c r="S3" t="n">
-        <v>148.8857043306949</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>64.92148982761394</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>213.2445435269807</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9620113031242</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176904</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>51.35335686948629</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>213.2445435269807</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>155.4978590199012</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>290.2905114143472</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>320.2362084475273</v>
+        <v>290.2905114143472</v>
       </c>
       <c r="G5" t="n">
-        <v>320.2362084475273</v>
+        <v>283.5456173122354</v>
       </c>
       <c r="H5" t="n">
-        <v>312.1904216779166</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>107.7656660302877</v>
+        <v>111.7608855401374</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>150.6718910157313</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>182.3441731399049</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,7 +977,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.9735104574378</v>
       </c>
       <c r="H6" t="n">
-        <v>98.4685597825502</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>40.31850253194271</v>
+        <v>42.22754232370908</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>11.65464780838184</v>
+        <v>15.09724236790348</v>
       </c>
       <c r="S6" t="n">
-        <v>145.2059886958168</v>
+        <v>146.235897424241</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8476022141223</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>116.17062070758</v>
+        <v>96.94134388846271</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>12.15545075340503</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>123.5594750121874</v>
+        <v>125.6496154441976</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.8394550385642</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>24.7780213728967</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>191.388277417867</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,7 +1150,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>115.6015948857611</v>
+        <v>232.6576254663973</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>91.52088227579229</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>20.18773807882631</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1534,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>31.24750433886494</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>134.3852063573447</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1768,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>102.1557845699818</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>78.6882778203391</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5981994227934</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>1.839588425939787</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>262.6919119500168</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2372,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2476,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183164</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>18.70843787977307</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2564,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2609,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>92.58181139165768</v>
       </c>
       <c r="D28" t="n">
-        <v>102.6244980900708</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2852,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>26.05480806223734</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>71.58885292964018</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3089,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3187,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>92.20984583428719</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,7 +3198,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>46.15319674220996</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3247,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3275,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>68.17501931583821</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>71.58885292963951</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3661,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>104.1233804225859</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>103.8784673763407</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>134.1343006978462</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>99.9742741983392</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="45">
@@ -4141,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4198,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>100.2041656279971</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>3.458642397731778</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>258.0173991013966</v>
+        <v>717.0015419180337</v>
       </c>
       <c r="C2" t="n">
-        <v>258.0173991013966</v>
+        <v>717.0015419180337</v>
       </c>
       <c r="D2" t="n">
-        <v>258.0173991013966</v>
+        <v>474.7712912700493</v>
       </c>
       <c r="E2" t="n">
-        <v>258.0173991013966</v>
+        <v>474.7712912700493</v>
       </c>
       <c r="F2" t="n">
-        <v>251.0718983521931</v>
+        <v>232.541040622065</v>
       </c>
       <c r="G2" t="n">
-        <v>237.9316662870934</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="H2" t="n">
-        <v>22.53313747196142</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I2" t="n">
-        <v>17.05956348215845</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J2" t="n">
-        <v>30.5697471065107</v>
+        <v>40.41888584470325</v>
       </c>
       <c r="K2" t="n">
-        <v>101.5565284515751</v>
+        <v>122.9820404192954</v>
       </c>
       <c r="L2" t="n">
-        <v>226.5236696486553</v>
+        <v>262.3106962605484</v>
       </c>
       <c r="M2" t="n">
-        <v>397.2431302647976</v>
+        <v>449.0101090859556</v>
       </c>
       <c r="N2" t="n">
-        <v>575.3388186142429</v>
+        <v>643.3443219779376</v>
       </c>
       <c r="O2" t="n">
-        <v>730.1742656760282</v>
+        <v>813.5133472948968</v>
       </c>
       <c r="P2" t="n">
-        <v>827.8217366396342</v>
+        <v>924.2476725444232</v>
       </c>
       <c r="Q2" t="n">
-        <v>852.9781741079227</v>
+        <v>959.231792566018</v>
       </c>
       <c r="R2" t="n">
-        <v>847.1454125515889</v>
+        <v>959.231792566018</v>
       </c>
       <c r="S2" t="n">
-        <v>688.8144567316606</v>
+        <v>959.231792566018</v>
       </c>
       <c r="T2" t="n">
-        <v>688.8144567316606</v>
+        <v>959.231792566018</v>
       </c>
       <c r="U2" t="n">
-        <v>473.4159279165286</v>
+        <v>959.231792566018</v>
       </c>
       <c r="V2" t="n">
-        <v>473.4159279165286</v>
+        <v>717.0015419180337</v>
       </c>
       <c r="W2" t="n">
-        <v>258.0173991013966</v>
+        <v>717.0015419180337</v>
       </c>
       <c r="X2" t="n">
-        <v>258.0173991013966</v>
+        <v>717.0015419180337</v>
       </c>
       <c r="Y2" t="n">
-        <v>258.0173991013966</v>
+        <v>717.0015419180337</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47.38173829126731</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="C3" t="n">
-        <v>17.05956348215845</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="D3" t="n">
-        <v>17.05956348215845</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="E3" t="n">
-        <v>17.05956348215845</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="F3" t="n">
-        <v>17.05956348215845</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="G3" t="n">
-        <v>17.05956348215845</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="H3" t="n">
-        <v>17.05956348215845</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I3" t="n">
-        <v>17.05956348215845</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J3" t="n">
-        <v>17.05956348215845</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="K3" t="n">
-        <v>76.80456507108148</v>
+        <v>86.79245551467723</v>
       </c>
       <c r="L3" t="n">
-        <v>203.4616338536806</v>
+        <v>224.022053530371</v>
       </c>
       <c r="M3" t="n">
-        <v>370.6213272672513</v>
+        <v>403.5193898849756</v>
       </c>
       <c r="N3" t="n">
-        <v>556.6138852820351</v>
+        <v>602.17613153764</v>
       </c>
       <c r="O3" t="n">
-        <v>737.0653851695868</v>
+        <v>761.6884442064004</v>
       </c>
       <c r="P3" t="n">
-        <v>836.4568250845134</v>
+        <v>870.378071733699</v>
       </c>
       <c r="Q3" t="n">
-        <v>852.9781741079227</v>
+        <v>959.231792566018</v>
       </c>
       <c r="R3" t="n">
-        <v>828.7816664109214</v>
+        <v>938.1198929682048</v>
       </c>
       <c r="S3" t="n">
-        <v>678.3920660768861</v>
+        <v>938.1198929682048</v>
       </c>
       <c r="T3" t="n">
-        <v>678.3920660768861</v>
+        <v>938.1198929682048</v>
       </c>
       <c r="U3" t="n">
-        <v>678.3920660768861</v>
+        <v>872.5426305160695</v>
       </c>
       <c r="V3" t="n">
-        <v>678.3920660768861</v>
+        <v>637.3905222843267</v>
       </c>
       <c r="W3" t="n">
-        <v>462.9935372617541</v>
+        <v>395.1602716363423</v>
       </c>
       <c r="X3" t="n">
-        <v>255.1420370562212</v>
+        <v>395.1602716363423</v>
       </c>
       <c r="Y3" t="n">
-        <v>47.38173829126731</v>
+        <v>187.3999728713884</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>480.511100828244</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="C4" t="n">
-        <v>480.511100828244</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="D4" t="n">
-        <v>480.511100828244</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="E4" t="n">
-        <v>332.5980072458509</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="F4" t="n">
-        <v>185.7080597479405</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="G4" t="n">
-        <v>17.05956348215845</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="H4" t="n">
-        <v>17.05956348215845</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="I4" t="n">
-        <v>17.05956348215845</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="J4" t="n">
-        <v>17.05956348215845</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="K4" t="n">
-        <v>113.3646722991124</v>
+        <v>120.2325654469301</v>
       </c>
       <c r="L4" t="n">
-        <v>165.6961188782969</v>
+        <v>305.0655603477483</v>
       </c>
       <c r="M4" t="n">
-        <v>364.5666226737192</v>
+        <v>510.3351610669861</v>
       </c>
       <c r="N4" t="n">
-        <v>564.1430468081713</v>
+        <v>656.2710011584438</v>
       </c>
       <c r="O4" t="n">
-        <v>732.4678813621425</v>
+        <v>830.3658965470427</v>
       </c>
       <c r="P4" t="n">
-        <v>852.9781741079227</v>
+        <v>955.8134731456582</v>
       </c>
       <c r="Q4" t="n">
-        <v>852.9781741079227</v>
+        <v>959.231792566018</v>
       </c>
       <c r="R4" t="n">
-        <v>852.9781741079227</v>
+        <v>907.3597149200723</v>
       </c>
       <c r="S4" t="n">
-        <v>852.9781741079227</v>
+        <v>907.3597149200723</v>
       </c>
       <c r="T4" t="n">
-        <v>852.9781741079227</v>
+        <v>681.7305182324372</v>
       </c>
       <c r="U4" t="n">
-        <v>852.9781741079227</v>
+        <v>681.7305182324372</v>
       </c>
       <c r="V4" t="n">
-        <v>637.5796452927907</v>
+        <v>439.5002675844528</v>
       </c>
       <c r="W4" t="n">
-        <v>637.5796452927907</v>
+        <v>439.5002675844528</v>
       </c>
       <c r="X4" t="n">
-        <v>637.5796452927907</v>
+        <v>439.5002675844528</v>
       </c>
       <c r="Y4" t="n">
-        <v>480.511100828244</v>
+        <v>218.7076884409227</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1096.758800315458</v>
+        <v>715.7454775461983</v>
       </c>
       <c r="C5" t="n">
-        <v>1096.758800315458</v>
+        <v>715.7454775461983</v>
       </c>
       <c r="D5" t="n">
-        <v>1096.758800315458</v>
+        <v>715.7454775461983</v>
       </c>
       <c r="E5" t="n">
-        <v>1096.758800315458</v>
+        <v>715.7454775461983</v>
       </c>
       <c r="F5" t="n">
-        <v>773.2878826916927</v>
+        <v>422.5227387438275</v>
       </c>
       <c r="G5" t="n">
-        <v>449.8169650679278</v>
+        <v>136.113024287024</v>
       </c>
       <c r="H5" t="n">
-        <v>134.4731047872039</v>
+        <v>136.113024287024</v>
       </c>
       <c r="I5" t="n">
-        <v>25.61889667580218</v>
+        <v>23.22324091314777</v>
       </c>
       <c r="J5" t="n">
-        <v>70.23995380345411</v>
+        <v>59.1367338295197</v>
       </c>
       <c r="K5" t="n">
-        <v>187.8538698679741</v>
+        <v>163.7002683444957</v>
       </c>
       <c r="L5" t="n">
-        <v>370.6660947378271</v>
+        <v>330.3223409084642</v>
       </c>
       <c r="M5" t="n">
-        <v>605.7493564943254</v>
+        <v>547.390938716287</v>
       </c>
       <c r="N5" t="n">
-        <v>849.2503195768606</v>
+        <v>772.5857417537053</v>
       </c>
       <c r="O5" t="n">
-        <v>1065.846112893867</v>
+        <v>971.8955472416924</v>
       </c>
       <c r="P5" t="n">
-        <v>1216.204610510195</v>
+        <v>1107.500854171414</v>
       </c>
       <c r="Q5" t="n">
-        <v>1280.944833790109</v>
+        <v>1161.162045657389</v>
       </c>
       <c r="R5" t="n">
-        <v>1280.944833790109</v>
+        <v>1161.162045657389</v>
       </c>
       <c r="S5" t="n">
-        <v>1280.944833790109</v>
+        <v>1008.968216348569</v>
       </c>
       <c r="T5" t="n">
-        <v>1280.944833790109</v>
+        <v>1008.968216348569</v>
       </c>
       <c r="U5" t="n">
-        <v>1280.944833790109</v>
+        <v>1008.968216348569</v>
       </c>
       <c r="V5" t="n">
-        <v>1280.944833790109</v>
+        <v>1008.968216348569</v>
       </c>
       <c r="W5" t="n">
-        <v>1096.758800315458</v>
+        <v>1008.968216348569</v>
       </c>
       <c r="X5" t="n">
-        <v>1096.758800315458</v>
+        <v>1008.968216348569</v>
       </c>
       <c r="Y5" t="n">
-        <v>1096.758800315458</v>
+        <v>1008.968216348569</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.8078485086233</v>
+        <v>524.2118915826896</v>
       </c>
       <c r="C6" t="n">
-        <v>165.8078485086233</v>
+        <v>349.7588623015627</v>
       </c>
       <c r="D6" t="n">
-        <v>165.8078485086233</v>
+        <v>349.7588623015627</v>
       </c>
       <c r="E6" t="n">
-        <v>165.8078485086233</v>
+        <v>349.7588623015627</v>
       </c>
       <c r="F6" t="n">
-        <v>165.8078485086233</v>
+        <v>203.2243043284477</v>
       </c>
       <c r="G6" t="n">
-        <v>165.8078485086233</v>
+        <v>65.87732406840948</v>
       </c>
       <c r="H6" t="n">
-        <v>66.34465680907765</v>
+        <v>65.87732406840948</v>
       </c>
       <c r="I6" t="n">
-        <v>25.61889667580218</v>
+        <v>23.22324091314777</v>
       </c>
       <c r="J6" t="n">
-        <v>33.37704565919541</v>
+        <v>25.79522430508938</v>
       </c>
       <c r="K6" t="n">
-        <v>124.7917826965283</v>
+        <v>108.3459783063296</v>
       </c>
       <c r="L6" t="n">
-        <v>294.0327190776153</v>
+        <v>265.6681956119413</v>
       </c>
       <c r="M6" t="n">
-        <v>510.885777427347</v>
+        <v>468.6126709702539</v>
       </c>
       <c r="N6" t="n">
-        <v>747.8869358809295</v>
+        <v>691.3371276269148</v>
       </c>
       <c r="O6" t="n">
-        <v>942.476898732651</v>
+        <v>872.8666975145456</v>
       </c>
       <c r="P6" t="n">
-        <v>1079.319433032043</v>
+        <v>999.2271150356722</v>
       </c>
       <c r="Q6" t="n">
-        <v>1280.944833790109</v>
+        <v>1161.162045657389</v>
       </c>
       <c r="R6" t="n">
-        <v>1269.172462266491</v>
+        <v>1145.91230589183</v>
       </c>
       <c r="S6" t="n">
-        <v>1122.499746412131</v>
+        <v>998.199278190576</v>
       </c>
       <c r="T6" t="n">
-        <v>1122.499746412131</v>
+        <v>998.199278190576</v>
       </c>
       <c r="U6" t="n">
-        <v>894.3708552867548</v>
+        <v>998.199278190576</v>
       </c>
       <c r="V6" t="n">
-        <v>659.218747055012</v>
+        <v>998.199278190576</v>
       </c>
       <c r="W6" t="n">
-        <v>541.8746857342242</v>
+        <v>900.2787288082905</v>
       </c>
       <c r="X6" t="n">
-        <v>334.0231855286913</v>
+        <v>692.4272286027576</v>
       </c>
       <c r="Y6" t="n">
-        <v>334.0231855286913</v>
+        <v>692.4272286027576</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>341.4450271016194</v>
+        <v>204.4376569253022</v>
       </c>
       <c r="C7" t="n">
-        <v>172.5088441737125</v>
+        <v>35.50147399739528</v>
       </c>
       <c r="D7" t="n">
-        <v>172.5088441737125</v>
+        <v>35.50147399739528</v>
       </c>
       <c r="E7" t="n">
-        <v>172.5088441737125</v>
+        <v>35.50147399739528</v>
       </c>
       <c r="F7" t="n">
-        <v>25.61889667580218</v>
+        <v>35.50147399739528</v>
       </c>
       <c r="G7" t="n">
-        <v>25.61889667580218</v>
+        <v>35.50147399739528</v>
       </c>
       <c r="H7" t="n">
-        <v>25.61889667580218</v>
+        <v>35.50147399739528</v>
       </c>
       <c r="I7" t="n">
-        <v>25.61889667580218</v>
+        <v>35.50147399739528</v>
       </c>
       <c r="J7" t="n">
-        <v>25.61889667580218</v>
+        <v>23.22324091314777</v>
       </c>
       <c r="K7" t="n">
-        <v>141.0270647162224</v>
+        <v>133.2846894279149</v>
       </c>
       <c r="L7" t="n">
-        <v>344.2362207693435</v>
+        <v>329.6518852993044</v>
       </c>
       <c r="M7" t="n">
-        <v>568.8809068957696</v>
+        <v>547.0826837276995</v>
       </c>
       <c r="N7" t="n">
-        <v>793.6186609135244</v>
+        <v>764.7780801730507</v>
       </c>
       <c r="O7" t="n">
-        <v>985.1840560939787</v>
+        <v>949.8387182967872</v>
       </c>
       <c r="P7" t="n">
-        <v>1125.580663386629</v>
+        <v>1084.669382195909</v>
       </c>
       <c r="Q7" t="n">
-        <v>1139.348916790959</v>
+        <v>1094.584064899865</v>
       </c>
       <c r="R7" t="n">
-        <v>1014.541366273599</v>
+        <v>967.6652614208776</v>
       </c>
       <c r="S7" t="n">
-        <v>1014.541366273599</v>
+        <v>967.6652614208776</v>
       </c>
       <c r="T7" t="n">
-        <v>789.4510076487861</v>
+        <v>967.6652614208776</v>
       </c>
       <c r="U7" t="n">
-        <v>789.4510076487861</v>
+        <v>967.6652614208776</v>
       </c>
       <c r="V7" t="n">
-        <v>534.7665194428993</v>
+        <v>942.6369570038103</v>
       </c>
       <c r="W7" t="n">
-        <v>534.7665194428993</v>
+        <v>653.2197869668496</v>
       </c>
       <c r="X7" t="n">
-        <v>341.4450271016194</v>
+        <v>425.2302360688323</v>
       </c>
       <c r="Y7" t="n">
-        <v>341.4450271016194</v>
+        <v>204.4376569253022</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.669246337128</v>
+        <v>1471.210842731383</v>
       </c>
       <c r="C8" t="n">
-        <v>994.7067293967168</v>
+        <v>1471.210842731383</v>
       </c>
       <c r="D8" t="n">
-        <v>994.7067293967168</v>
+        <v>1112.945144124632</v>
       </c>
       <c r="E8" t="n">
-        <v>994.7067293967168</v>
+        <v>1112.945144124632</v>
       </c>
       <c r="F8" t="n">
-        <v>583.7208246071093</v>
+        <v>701.9592393350247</v>
       </c>
       <c r="G8" t="n">
-        <v>168.0160743313982</v>
+        <v>286.2544890593135</v>
       </c>
       <c r="H8" t="n">
         <v>51.2467865680031</v>
@@ -4829,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583054</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W8" t="n">
-        <v>1753.80857831294</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="X8" t="n">
-        <v>1753.80857831294</v>
+        <v>1857.810682795504</v>
       </c>
       <c r="Y8" t="n">
-        <v>1363.669246337128</v>
+        <v>1857.810682795504</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4874,34 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M9" t="n">
-        <v>1140.868925009994</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1528.154053606939</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>1860.224488783101</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
         <v>2538.001278676482</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>611.483842676853</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C10" t="n">
-        <v>442.5476597489461</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>292.4310203366103</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>292.4310203366103</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>292.4310203366103</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>292.4310203366103</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>143.6921222001165</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
@@ -4990,22 +4992,22 @@
         <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.23396574994</v>
+        <v>1316.842311124863</v>
       </c>
       <c r="U10" t="n">
-        <v>1337.23396574994</v>
+        <v>1316.842311124863</v>
       </c>
       <c r="V10" t="n">
-        <v>1082.549477544053</v>
+        <v>1062.157822918976</v>
       </c>
       <c r="W10" t="n">
-        <v>793.1323075070927</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="X10" t="n">
-        <v>793.1323075070927</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="Y10" t="n">
-        <v>793.1323075070927</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="11">
@@ -5036,34 +5038,34 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3403484614391</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4041655335323</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D13" t="n">
-        <v>664.2875261211965</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E13" t="n">
-        <v>516.3744325388034</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>229.5592957321584</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5221,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.3403484614391</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5273,52 +5275,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5364,19 +5366,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>197.0043242297717</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>197.0043242297717</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="17">
@@ -5507,46 +5509,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5598,22 +5600,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M18" t="n">
-        <v>1307.627092998424</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958739</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>633.992644467967</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>483.8760050556313</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>483.8760050556313</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>483.8760050556313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2445.104913453049</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2445.104913453049</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2225.50344847599</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304622</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369644</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261136</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5744,37 +5746,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5835,19 +5837,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.53722908186</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153953</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741617</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159224</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661314</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376194</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4690.833152398594</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4690.833152398594</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4517.069482196494</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>4262.384993990608</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3972.967823953647</v>
+        <v>1168.356000042741</v>
       </c>
       <c r="X22" t="n">
-        <v>3744.978273055629</v>
+        <v>940.366449144724</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912099</v>
+        <v>719.5738700011939</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,25 +5986,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6020,7 +6022,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6069,19 +6071,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6124,10 +6126,10 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998291</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E25" t="n">
         <v>175.9033664000583</v>
@@ -6206,10 +6208,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6218,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>904.4616873845483</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1501.8401750111</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>802.9288273958739</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C28" t="n">
-        <v>633.992644467967</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6415,19 +6417,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.5772922261136</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="29">
@@ -6455,7 +6457,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192616</v>
@@ -6473,37 +6475,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6546,19 +6548,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>2824.769373306004</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>2655.833190378097</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>2505.716550965761</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>2505.716550965761</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>2505.716550965761</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>2479.398563024107</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>4507.978318053499</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>4288.37685307644</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>3999.301626420638</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854707</v>
+        <v>3744.617138214751</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817746</v>
+        <v>3455.199968177791</v>
       </c>
       <c r="X31" t="n">
-        <v>1170.979132919728</v>
+        <v>3227.210417279774</v>
       </c>
       <c r="Y31" t="n">
-        <v>1098.667160263526</v>
+        <v>3006.417838136244</v>
       </c>
     </row>
     <row r="32">
@@ -6689,31 +6691,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694708</v>
@@ -6722,25 +6724,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6783,16 +6785,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1802.364528928006</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O33" t="n">
-        <v>2354.274259167293</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3160.17996888056</v>
+        <v>1022.872235754091</v>
       </c>
       <c r="C34" t="n">
-        <v>2991.243785952653</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>2841.127146540317</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>2693.214052957924</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>2693.214052957924</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>2526.017953672804</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>2384.306122515002</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4623.787448650996</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4623.787448650996</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U34" t="n">
-        <v>4334.712221995194</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V34" t="n">
-        <v>4080.027733789308</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W34" t="n">
-        <v>3790.610563752347</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="X34" t="n">
-        <v>3562.62101285433</v>
+        <v>1425.313279727861</v>
       </c>
       <c r="Y34" t="n">
-        <v>3341.8284337108</v>
+        <v>1204.520700584331</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6925,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6941,31 +6943,31 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466574</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7020,16 +7022,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M36" t="n">
-        <v>738.7889117913853</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876693</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597624</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597624</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597624</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>244.7670222746423</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7190,22 +7192,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7260,16 +7262,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400717</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D40" t="n">
-        <v>513.8536007400717</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E40" t="n">
-        <v>365.9405071576786</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="F40" t="n">
-        <v>365.9405071576786</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
-        <v>198.7444078725585</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,37 +7423,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2757.723669558406</v>
+        <v>3158.973599365703</v>
       </c>
       <c r="C43" t="n">
-        <v>2588.787486630499</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="D43" t="n">
-        <v>2438.670847218163</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E43" t="n">
-        <v>2438.670847218163</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F43" t="n">
-        <v>2438.670847218163</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G43" t="n">
-        <v>2337.686731866305</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866305</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866305</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296629</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822168</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998108</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729143</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389151</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098136</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671695</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650996</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.932614305901</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328842</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.25592267304</v>
+        <v>4151.857387650098</v>
       </c>
       <c r="V43" t="n">
-        <v>3677.571434467153</v>
+        <v>3897.172899444211</v>
       </c>
       <c r="W43" t="n">
-        <v>3388.154264430193</v>
+        <v>3607.75572940725</v>
       </c>
       <c r="X43" t="n">
-        <v>3160.164713532175</v>
+        <v>3379.766178509233</v>
       </c>
       <c r="Y43" t="n">
-        <v>2939.372134388645</v>
+        <v>3158.973599365703</v>
       </c>
     </row>
     <row r="44">
@@ -7640,13 +7642,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075809</v>
@@ -7658,22 +7660,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282754</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458823</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>10.88007489328488</v>
+        <v>6.233205181928469</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8070,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32.85297080641683</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>66.78462588923453</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8140,13 +8142,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>34.76523626782</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>111.3252676074451</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>48.23267925886458</v>
+        <v>54.74236624506781</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8313,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>161.6858453954307</v>
+        <v>128.6722568460167</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>186.4490126143851</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23422,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>114.1735436840663</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>31.13893193492419</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>63.36835372228707</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>147.0213775686981</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9259388694754591</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>64.53565828418191</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>23.83108638657416</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>127.7255247667962</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>127.7255247667961</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>74.66500970697015</v>
       </c>
       <c r="D28" t="n">
-        <v>45.99097492814151</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>139.4693302300315</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>146.9958004224546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>75.03697526434064</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>35.11263957635555</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>72.11969353038565</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>146.9958004224553</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>41.29766760034539</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>36.41624546988312</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>33.11252040078162</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>65.54986409392964</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>125.5054897610401</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>215.126010954363</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>836430.5149005734</v>
+        <v>837857.956542889</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>839767.7749609658</v>
+        <v>839326.9724257692</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>819345.4789902525</v>
+        <v>819345.4789902526</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902525</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902525</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>819345.4789902525</v>
+        <v>819345.4789902526</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
+        <v>615781.327398212</v>
+      </c>
+      <c r="D2" t="n">
         <v>615781.3273982125</v>
       </c>
-      <c r="D2" t="n">
-        <v>615781.3273982126</v>
-      </c>
       <c r="E2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="F2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="F2" t="n">
-        <v>605359.9497675045</v>
-      </c>
       <c r="G2" t="n">
+        <v>605359.9497675039</v>
+      </c>
+      <c r="H2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="H2" t="n">
-        <v>605359.9497675045</v>
-      </c>
       <c r="I2" t="n">
-        <v>605359.9497675048</v>
+        <v>605359.9497675047</v>
       </c>
       <c r="J2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="K2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="L2" t="n">
         <v>605359.9497675046</v>
       </c>
-      <c r="K2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675045</v>
-      </c>
       <c r="M2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="N2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="N2" t="n">
-        <v>605359.9497675047</v>
-      </c>
       <c r="O2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675044</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>621309.9391332068</v>
+        <v>652246.4444800889</v>
       </c>
       <c r="C3" t="n">
-        <v>118433.6817166234</v>
+        <v>55881.32342211055</v>
       </c>
       <c r="D3" t="n">
-        <v>331901.1145228005</v>
+        <v>363279.8866276231</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,22 +26386,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>55794.15534657331</v>
+        <v>62744.31078353576</v>
       </c>
       <c r="K3" t="n">
-        <v>27536.23081727119</v>
+        <v>12992.59634440502</v>
       </c>
       <c r="L3" t="n">
-        <v>81077.35350883799</v>
+        <v>88656.33991666231</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289265</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.19711258155959e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>269041.6482059987</v>
+        <v>261062.8075060264</v>
       </c>
       <c r="C4" t="n">
-        <v>237201.8650125501</v>
+        <v>246054.6603431036</v>
       </c>
       <c r="D4" t="n">
         <v>143951.0939828189</v>
@@ -26448,7 +26450,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683043</v>
+        <v>12996.86414683039</v>
       </c>
       <c r="N4" t="n">
         <v>12996.86414683044</v>
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59032.15660993008</v>
+        <v>61145.70223437328</v>
       </c>
       <c r="C5" t="n">
-        <v>67545.06256179269</v>
+        <v>65162.40123302708</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-333602.4165509228</v>
+        <v>-358673.6268222762</v>
       </c>
       <c r="C6" t="n">
-        <v>192600.7181072463</v>
+        <v>248682.9423999709</v>
       </c>
       <c r="D6" t="n">
-        <v>46991.34645274855</v>
+        <v>15612.57434792581</v>
       </c>
       <c r="E6" t="n">
-        <v>-16244.88582777941</v>
+        <v>-16244.88582777939</v>
       </c>
       <c r="F6" t="n">
-        <v>491240.5557967669</v>
+        <v>491240.5557967671</v>
       </c>
       <c r="G6" t="n">
+        <v>491240.5557967664</v>
+      </c>
+      <c r="H6" t="n">
         <v>491240.5557967668</v>
       </c>
-      <c r="H6" t="n">
-        <v>491240.5557967669</v>
-      </c>
       <c r="I6" t="n">
-        <v>491240.5557967673</v>
+        <v>491240.5557967671</v>
       </c>
       <c r="J6" t="n">
-        <v>435446.4004501937</v>
+        <v>428496.2450132311</v>
       </c>
       <c r="K6" t="n">
-        <v>463704.3249794959</v>
+        <v>478247.9594523617</v>
       </c>
       <c r="L6" t="n">
-        <v>410163.2022879289</v>
+        <v>402584.2158801047</v>
       </c>
       <c r="M6" t="n">
-        <v>358633.26206784</v>
+        <v>358633.2620678401</v>
       </c>
       <c r="N6" t="n">
-        <v>491240.5557967672</v>
+        <v>491240.5557967668</v>
       </c>
       <c r="O6" t="n">
-        <v>491240.5557967671</v>
+        <v>491240.5557967666</v>
       </c>
       <c r="P6" t="n">
-        <v>491240.5557967671</v>
+        <v>491240.5557967668</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>570.609557958241</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>662.7110590909645</v>
+        <v>636.9329421575586</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.2445435269807</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>320.2362084475273</v>
+        <v>290.2905114143472</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="K4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="L4" t="n">
-        <v>1172.708288099649</v>
-      </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26941,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>570.609557958241</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>92.10150113272346</v>
+        <v>43.456841819494</v>
       </c>
       <c r="D3" t="n">
-        <v>271.3538330265746</v>
+        <v>297.1319499599805</v>
       </c>
       <c r="E3" t="n">
         <v>433.9106082241349</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.2445435269807</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>106.9916649205466</v>
+        <v>50.48256327284265</v>
       </c>
       <c r="D4" t="n">
-        <v>320.3486236525114</v>
+        <v>350.2943206856916</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>213.2445435269806</v>
+        <v>239.8079481415043</v>
       </c>
       <c r="K4" t="n">
-        <v>106.9916649205464</v>
+        <v>50.48256327284287</v>
       </c>
       <c r="L4" t="n">
-        <v>320.3486236525123</v>
+        <v>350.2943206856913</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>213.2445435269807</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="K4" t="n">
-        <v>106.9916649205466</v>
+        <v>50.48256327284265</v>
       </c>
       <c r="L4" t="n">
-        <v>320.3486236525114</v>
+        <v>350.2943206856916</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>114.8750934791784</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>167.0680976002069</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>201.6940632228996</v>
       </c>
       <c r="H2" t="n">
-        <v>102.7377756322444</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>116.6211719911137</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>213.0542682979517</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>37.91759675920092</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>87.94431032863039</v>
       </c>
       <c r="W2" t="n">
-        <v>135.9964251904323</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>142.689545927298</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27470,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1161683026967</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>100.3818381362696</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I3" t="n">
-        <v>47.13922690828119</v>
+        <v>45.4458084395867</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,22 +27508,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
-        <v>195.2176514895044</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8606354454147</v>
+        <v>160.9359097863319</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>38.45043963393894</v>
+        <v>11.88703501941509</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
-        <v>153.0787110700107</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
-        <v>124.5065992268343</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>20.6111386045213</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>131.0272459073095</v>
+        <v>77.81982479830505</v>
       </c>
       <c r="S4" t="n">
-        <v>206.0844911090059</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T4" t="n">
-        <v>223.5490895554885</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2629038261999</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>38.89309979684734</v>
+        <v>12.32969518232349</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>63.08679433219359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>92.4433302491334</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,13 +27627,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>86.63983729418413</v>
+        <v>116.5855343273643</v>
       </c>
       <c r="G5" t="n">
-        <v>92.40236400593551</v>
+        <v>129.1965857620652</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>313.2517287735718</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>148.3104082433896</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>211.4334670066612</v>
+        <v>211.8871100493787</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1325197029027</v>
+        <v>251.1408101525697</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>166.8967955775082</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27695,7 +27697,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27704,13 +27706,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.9180631870527</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.00406368337434</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27746,16 +27748,16 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.4191488523254</v>
+        <v>194.6426402623424</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8512500608582</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>135.5243624533396</v>
+        <v>154.7536392724569</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27783,19 +27785,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.7959266289505</v>
+        <v>166.8424117578468</v>
       </c>
       <c r="H7" t="n">
-        <v>151.6020673305385</v>
+        <v>152.0153623856348</v>
       </c>
       <c r="I7" t="n">
-        <v>119.511980116227</v>
+        <v>120.9099147197631</v>
       </c>
       <c r="J7" t="n">
-        <v>8.868952140436221</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>203.1900881963595</v>
+        <v>204.0001972153978</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.0380733165757</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2538446621541</v>
+        <v>286.2563802146393</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>227.3596219509313</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>34.32137797117011</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>185.4169576766443</v>
+        <v>68.36092709600806</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27913,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28026,10 +28028,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>13.27571292810829</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28064,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>200.5609579183856</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29983,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
     </row>
     <row r="36">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.293907770686394</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H2" t="n">
-        <v>23.49248295654204</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I2" t="n">
-        <v>88.4358793293873</v>
+        <v>91.97984867651554</v>
       </c>
       <c r="J2" t="n">
-        <v>194.6925546522945</v>
+        <v>202.49464189374</v>
       </c>
       <c r="K2" t="n">
-        <v>291.7936705854496</v>
+        <v>303.4869768779019</v>
       </c>
       <c r="L2" t="n">
-        <v>361.9958505225935</v>
+        <v>376.5024309712528</v>
       </c>
       <c r="M2" t="n">
-        <v>402.7901328395376</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N2" t="n">
-        <v>409.3076982930003</v>
+        <v>425.7102483359667</v>
       </c>
       <c r="O2" t="n">
-        <v>386.4976528982375</v>
+        <v>401.9861157822516</v>
       </c>
       <c r="P2" t="n">
-        <v>329.8668048094171</v>
+        <v>343.0858495426698</v>
       </c>
       <c r="Q2" t="n">
-        <v>247.7162327717105</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0946840003793</v>
+        <v>149.8691179411496</v>
       </c>
       <c r="S2" t="n">
-        <v>52.27242332451626</v>
+        <v>54.36718245810513</v>
       </c>
       <c r="T2" t="n">
-        <v>10.0415812661797</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1835126216549115</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.227348860513952</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H3" t="n">
-        <v>11.85360610022686</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>42.25740594313389</v>
+        <v>43.95082441182838</v>
       </c>
       <c r="J3" t="n">
-        <v>115.9575517733818</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K3" t="n">
-        <v>198.1899254278166</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L3" t="n">
-        <v>266.4908128936106</v>
+        <v>277.170135351282</v>
       </c>
       <c r="M3" t="n">
-        <v>310.9822090872413</v>
+        <v>323.4444746842452</v>
       </c>
       <c r="N3" t="n">
-        <v>319.2129828053371</v>
+        <v>332.0050874900651</v>
       </c>
       <c r="O3" t="n">
-        <v>292.0175159486859</v>
+        <v>303.7197925947075</v>
       </c>
       <c r="P3" t="n">
-        <v>234.3698012677915</v>
+        <v>243.7619099671572</v>
       </c>
       <c r="Q3" t="n">
-        <v>156.6700054227986</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R3" t="n">
-        <v>76.20329153261191</v>
+        <v>79.25705355080798</v>
       </c>
       <c r="S3" t="n">
-        <v>22.79746677314292</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T3" t="n">
-        <v>4.947077205317201</v>
+        <v>5.145325813308313</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08074663556012848</v>
+        <v>0.08398246702897144</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.028968055334533</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H4" t="n">
-        <v>9.148461437428853</v>
+        <v>9.515075838207009</v>
       </c>
       <c r="I4" t="n">
-        <v>30.94387570042396</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J4" t="n">
-        <v>72.74804151215147</v>
+        <v>75.66333823490373</v>
       </c>
       <c r="K4" t="n">
-        <v>119.5473795197757</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L4" t="n">
-        <v>152.9794870630996</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M4" t="n">
-        <v>161.2954198012123</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N4" t="n">
-        <v>157.4601752313291</v>
+        <v>163.770216344109</v>
       </c>
       <c r="O4" t="n">
-        <v>145.439957494012</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P4" t="n">
-        <v>124.4490091651874</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>89.61489115104776</v>
       </c>
       <c r="R4" t="n">
-        <v>46.26614546985999</v>
+        <v>48.12020970937814</v>
       </c>
       <c r="S4" t="n">
-        <v>17.93210692796635</v>
+        <v>18.6507161368536</v>
       </c>
       <c r="T4" t="n">
-        <v>4.396499872793003</v>
+        <v>4.572684707522791</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05612553029097458</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.664165061672217</v>
+        <v>2.560534440834405</v>
       </c>
       <c r="H5" t="n">
-        <v>27.2843804378506</v>
+        <v>26.22307334219535</v>
       </c>
       <c r="I5" t="n">
-        <v>102.7102235401182</v>
+        <v>98.71500403026847</v>
       </c>
       <c r="J5" t="n">
-        <v>226.1176794031025</v>
+        <v>217.3221599977692</v>
       </c>
       <c r="K5" t="n">
-        <v>338.8917864636875</v>
+        <v>325.7095828782897</v>
       </c>
       <c r="L5" t="n">
-        <v>420.4252279698387</v>
+        <v>404.0715387719757</v>
       </c>
       <c r="M5" t="n">
-        <v>467.804073385352</v>
+        <v>449.6074431341644</v>
       </c>
       <c r="N5" t="n">
-        <v>475.3736323668282</v>
+        <v>456.8825616141852</v>
       </c>
       <c r="O5" t="n">
-        <v>448.8818410348251</v>
+        <v>431.4212472681381</v>
       </c>
       <c r="P5" t="n">
-        <v>383.1102660747922</v>
+        <v>368.2080532600387</v>
       </c>
       <c r="Q5" t="n">
-        <v>287.6998548036558</v>
+        <v>276.5089135976565</v>
       </c>
       <c r="R5" t="n">
-        <v>167.3528585552675</v>
+        <v>160.8431715690643</v>
       </c>
       <c r="S5" t="n">
-        <v>60.7096613428557</v>
+        <v>58.34817857051405</v>
       </c>
       <c r="T5" t="n">
-        <v>11.66238255747013</v>
+        <v>11.20873951475261</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2131332049337773</v>
+        <v>0.2048427552667523</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.425453976157924</v>
+        <v>1.370006705772862</v>
       </c>
       <c r="H6" t="n">
-        <v>13.76688445394626</v>
+        <v>13.23138055312212</v>
       </c>
       <c r="I6" t="n">
-        <v>49.07813031947237</v>
+        <v>47.169090527706</v>
       </c>
       <c r="J6" t="n">
-        <v>134.6741407913063</v>
+        <v>129.4355896888299</v>
       </c>
       <c r="K6" t="n">
-        <v>230.1795571938872</v>
+        <v>221.2260389756117</v>
       </c>
       <c r="L6" t="n">
-        <v>309.504820568851</v>
+        <v>297.4657103916032</v>
       </c>
       <c r="M6" t="n">
-        <v>361.1775272045756</v>
+        <v>347.1284534758694</v>
       </c>
       <c r="N6" t="n">
-        <v>370.7368216324066</v>
+        <v>356.3159107264252</v>
       </c>
       <c r="O6" t="n">
-        <v>339.1517624764863</v>
+        <v>325.9594463511423</v>
       </c>
       <c r="P6" t="n">
-        <v>272.1991895349285</v>
+        <v>261.6111927892056</v>
       </c>
       <c r="Q6" t="n">
-        <v>181.9579496583343</v>
+        <v>174.8801542316376</v>
       </c>
       <c r="R6" t="n">
-        <v>88.50318634426129</v>
+        <v>85.06059178473966</v>
       </c>
       <c r="S6" t="n">
-        <v>26.47718240802106</v>
+        <v>25.44727367959678</v>
       </c>
       <c r="T6" t="n">
-        <v>5.745579842496189</v>
+        <v>5.522088432479209</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09377986685249501</v>
+        <v>0.09013202011663569</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.195052729508296</v>
+        <v>1.148567600611991</v>
       </c>
       <c r="H7" t="n">
-        <v>10.62510517690104</v>
+        <v>10.2118101218048</v>
       </c>
       <c r="I7" t="n">
-        <v>35.93849481103133</v>
+        <v>34.54056020749515</v>
       </c>
       <c r="J7" t="n">
-        <v>84.49022797623655</v>
+        <v>81.20372936326774</v>
       </c>
       <c r="K7" t="n">
-        <v>138.8433989374184</v>
+        <v>133.4426721438294</v>
       </c>
       <c r="L7" t="n">
-        <v>177.6717485307153</v>
+        <v>170.7606776400773</v>
       </c>
       <c r="M7" t="n">
-        <v>187.3299474082868</v>
+        <v>180.0431921577505</v>
       </c>
       <c r="N7" t="n">
-        <v>182.8756599619379</v>
+        <v>175.7621674645605</v>
       </c>
       <c r="O7" t="n">
-        <v>168.9152712581364</v>
+        <v>162.344809584684</v>
       </c>
       <c r="P7" t="n">
-        <v>144.536195576167</v>
+        <v>138.9140305321993</v>
       </c>
       <c r="Q7" t="n">
-        <v>100.0693699227356</v>
+        <v>96.17687426579134</v>
       </c>
       <c r="R7" t="n">
-        <v>53.73391636498211</v>
+        <v>51.64377593297186</v>
       </c>
       <c r="S7" t="n">
-        <v>20.82650984061276</v>
+        <v>20.01640082157441</v>
       </c>
       <c r="T7" t="n">
-        <v>5.106134389717266</v>
+        <v>4.907516111705777</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06518469433681624</v>
+        <v>0.06264914185156321</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31841,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>282.8216163968498</v>
       </c>
       <c r="N12" t="n">
-        <v>602.8420149078237</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
@@ -31862,7 +31864,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32084,31 +32086,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>583.1096135868572</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>379.4203056753698</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32555,34 +32557,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,10 +32791,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
@@ -32801,10 +32803,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33026,25 +33028,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>468.9317632522997</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>353.2560498238272</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33266,22 +33268,22 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>282.8216163968498</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33503,19 +33505,19 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>334.7693860946154</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33740,34 +33742,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N36" t="n">
-        <v>742.9354859824765</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>639.8517673857158</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,22 +34450,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>13.64665012560826</v>
+        <v>21.4487373670537</v>
       </c>
       <c r="K2" t="n">
-        <v>71.70381954046906</v>
+        <v>83.39712583292135</v>
       </c>
       <c r="L2" t="n">
-        <v>126.2294355526062</v>
+        <v>140.7360160012656</v>
       </c>
       <c r="M2" t="n">
-        <v>172.4438996122649</v>
+        <v>188.5852654802094</v>
       </c>
       <c r="N2" t="n">
-        <v>179.8946346964094</v>
+        <v>196.2971847393758</v>
       </c>
       <c r="O2" t="n">
-        <v>156.3994414765508</v>
+        <v>171.8879043605649</v>
       </c>
       <c r="P2" t="n">
-        <v>98.63380905414755</v>
+        <v>111.8528537874002</v>
       </c>
       <c r="Q2" t="n">
-        <v>25.41054289726102</v>
+        <v>35.33749497130796</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>60.34848645345761</v>
+        <v>68.2907269326837</v>
       </c>
       <c r="L3" t="n">
-        <v>127.9364331137364</v>
+        <v>138.6157555714078</v>
       </c>
       <c r="M3" t="n">
-        <v>168.848175165223</v>
+        <v>181.3104407622268</v>
       </c>
       <c r="N3" t="n">
-        <v>187.8712707220038</v>
+        <v>200.6633754067318</v>
       </c>
       <c r="O3" t="n">
-        <v>182.2742423106583</v>
+        <v>161.123548150263</v>
       </c>
       <c r="P3" t="n">
-        <v>100.3953938534613</v>
+        <v>109.7875025528269</v>
       </c>
       <c r="Q3" t="n">
-        <v>16.68823133677705</v>
+        <v>89.75123316395862</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>97.27788769389285</v>
+        <v>102.0686157531411</v>
       </c>
       <c r="L4" t="n">
-        <v>52.8600470496813</v>
+        <v>186.6999948493114</v>
       </c>
       <c r="M4" t="n">
-        <v>200.8792967630528</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N4" t="n">
-        <v>201.5923476105577</v>
+        <v>147.4099394863209</v>
       </c>
       <c r="O4" t="n">
-        <v>170.0250854080517</v>
+        <v>175.8534296854533</v>
       </c>
       <c r="P4" t="n">
-        <v>121.7275684300809</v>
+        <v>126.7147238369854</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.452847899353372</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>45.07177487641624</v>
+        <v>36.27625547108295</v>
       </c>
       <c r="K5" t="n">
-        <v>118.801935418707</v>
+        <v>105.6197318333091</v>
       </c>
       <c r="L5" t="n">
-        <v>184.6588129998515</v>
+        <v>168.3051238019884</v>
       </c>
       <c r="M5" t="n">
-        <v>237.4578401580793</v>
+        <v>219.2612099068917</v>
       </c>
       <c r="N5" t="n">
-        <v>245.9605687702373</v>
+        <v>227.4694980175943</v>
       </c>
       <c r="O5" t="n">
-        <v>218.7836296131383</v>
+        <v>201.3230358464514</v>
       </c>
       <c r="P5" t="n">
-        <v>151.8772703195226</v>
+        <v>136.9750575047692</v>
       </c>
       <c r="Q5" t="n">
-        <v>65.39416492920631</v>
+        <v>54.203223723207</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7.836514124639621</v>
+        <v>2.597963022163242</v>
       </c>
       <c r="K6" t="n">
-        <v>92.33811821952818</v>
+        <v>83.38460000125269</v>
       </c>
       <c r="L6" t="n">
-        <v>170.9504407889768</v>
+        <v>158.9113306117291</v>
       </c>
       <c r="M6" t="n">
-        <v>219.0434932825573</v>
+        <v>204.9944195538511</v>
       </c>
       <c r="N6" t="n">
-        <v>239.3951095490733</v>
+        <v>224.9741986430919</v>
       </c>
       <c r="O6" t="n">
-        <v>196.5555180320418</v>
+        <v>183.3632019066978</v>
       </c>
       <c r="P6" t="n">
-        <v>138.2247821205982</v>
+        <v>127.6367853748753</v>
       </c>
       <c r="Q6" t="n">
-        <v>203.6620209677434</v>
+        <v>163.5706369916328</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>116.5739071115356</v>
+        <v>111.1731803179466</v>
       </c>
       <c r="L7" t="n">
-        <v>205.2617737910314</v>
+        <v>198.3507029003934</v>
       </c>
       <c r="M7" t="n">
-        <v>226.9138243701274</v>
+        <v>219.6270691195911</v>
       </c>
       <c r="N7" t="n">
-        <v>227.0078323411665</v>
+        <v>219.8943398437891</v>
       </c>
       <c r="O7" t="n">
-        <v>193.500399172176</v>
+        <v>186.9299374987237</v>
       </c>
       <c r="P7" t="n">
-        <v>141.8147548410605</v>
+        <v>136.1925897970928</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.90732667104125</v>
+        <v>10.01483101409696</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>553.3803448964255</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35267,10 +35269,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>24.58388860977091</v>
@@ -35489,16 +35491,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748315</v>
       </c>
       <c r="N12" t="n">
-        <v>471.5003028244903</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
@@ -35510,7 +35512,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,22 +35734,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>440.9755796648388</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>237.2862717533515</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36205,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36355,7 +36357,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.4543240367771</v>
@@ -36437,10 +36439,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,10 +36451,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>330.3773834724255</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>213.2742757378057</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748315</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,19 +37153,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>200.7949786802852</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N36" t="n">
-        <v>611.5937738991432</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193515</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>508.5100553023825</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2274278.584357216</v>
+        <v>2269974.937085833</v>
       </c>
     </row>
     <row r="7">
@@ -664,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>239.8079481415045</v>
+        <v>239.807948141505</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>239.807948141505</v>
       </c>
       <c r="F2" t="n">
-        <v>239.8079481415045</v>
+        <v>70.80913467549958</v>
       </c>
       <c r="G2" t="n">
-        <v>211.2228407230371</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>239.8079481415045</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -740,16 +740,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183515</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>141.245644095946</v>
       </c>
       <c r="U3" t="n">
-        <v>64.92148982761394</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>239.8079481415045</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176904</v>
+        <v>15.12749594594686</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>51.35335686948629</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>239.8079481415045</v>
+        <v>239.807948141505</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>290.2905114143472</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>202.9508452487474</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>290.2905114143472</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>283.5456173122354</v>
+        <v>12.74220307430066</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>111.7608855401374</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>150.6718910157313</v>
+        <v>150.6718910157316</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>211.8871100493788</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1408101525697</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>290.2905114143431</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -980,22 +980,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.9735104574378</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>42.22754232370908</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15.09724236790348</v>
+        <v>15.09724236790393</v>
       </c>
       <c r="S6" t="n">
-        <v>146.235897424241</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>96.94134388846271</v>
+        <v>55.67466468987431</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>10.9364628892055</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>12.15545075340503</v>
+        <v>12.15545075340546</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>125.6496154441976</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.0001972153979</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>24.7780213728967</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295398</v>
       </c>
       <c r="H8" t="n">
-        <v>232.6576254663973</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>27.74340300198167</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987942</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802337</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.8315678926962</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923704996</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>134.3646350838587</v>
       </c>
       <c r="T9" t="n">
         <v>192.0665623188214</v>
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>20.18773807882631</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>50.98074812543258</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>134.3852063573447</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>6.228861054224446</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>60.25690685266998</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>78.6882778203391</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560526</v>
       </c>
     </row>
     <row r="18">
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2016,10 +2016,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.839588425939787</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>137.7610225486953</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2083,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>125.2851635392057</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>262.6919119500168</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>39.52129633183164</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>171.1529885179052</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>92.58181139165768</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444159</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>26.05480806223734</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>153.5899618586479</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695709</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>92.20984583428719</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>219.4517041866478</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>71.58885292963951</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634833</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>104.1233804225859</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428251</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695709</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>134.1343006978462</v>
+        <v>110.0177171766865</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881283</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>3.458642397731778</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>717.0015419180337</v>
+        <v>588.2168933305593</v>
       </c>
       <c r="C2" t="n">
-        <v>717.0015419180337</v>
+        <v>588.2168933305593</v>
       </c>
       <c r="D2" t="n">
-        <v>474.7712912700493</v>
+        <v>345.9866426825744</v>
       </c>
       <c r="E2" t="n">
-        <v>474.7712912700493</v>
+        <v>103.7563920345895</v>
       </c>
       <c r="F2" t="n">
-        <v>232.541040622065</v>
+        <v>32.23201357448889</v>
       </c>
       <c r="G2" t="n">
-        <v>19.18463585132036</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="H2" t="n">
-        <v>19.18463585132036</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="I2" t="n">
-        <v>19.18463585132036</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="J2" t="n">
-        <v>40.41888584470325</v>
+        <v>40.41888584470337</v>
       </c>
       <c r="K2" t="n">
-        <v>122.9820404192954</v>
+        <v>122.9820404192956</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605484</v>
+        <v>262.3106962605488</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859556</v>
+        <v>449.0101090859564</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779376</v>
+        <v>643.3443219779391</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948968</v>
+        <v>813.5133472948986</v>
       </c>
       <c r="P2" t="n">
-        <v>924.2476725444232</v>
+        <v>924.2476725444251</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.231792566018</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="R2" t="n">
-        <v>959.231792566018</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="S2" t="n">
-        <v>959.231792566018</v>
+        <v>803.0167550628482</v>
       </c>
       <c r="T2" t="n">
-        <v>959.231792566018</v>
+        <v>588.2168933305593</v>
       </c>
       <c r="U2" t="n">
-        <v>959.231792566018</v>
+        <v>588.2168933305593</v>
       </c>
       <c r="V2" t="n">
-        <v>717.0015419180337</v>
+        <v>588.2168933305593</v>
       </c>
       <c r="W2" t="n">
-        <v>717.0015419180337</v>
+        <v>588.2168933305593</v>
       </c>
       <c r="X2" t="n">
-        <v>717.0015419180337</v>
+        <v>588.2168933305593</v>
       </c>
       <c r="Y2" t="n">
-        <v>717.0015419180337</v>
+        <v>588.2168933305593</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.18463585132036</v>
+        <v>648.3440877722692</v>
       </c>
       <c r="C3" t="n">
-        <v>19.18463585132036</v>
+        <v>473.8910584911422</v>
       </c>
       <c r="D3" t="n">
-        <v>19.18463585132036</v>
+        <v>324.9566488298909</v>
       </c>
       <c r="E3" t="n">
-        <v>19.18463585132036</v>
+        <v>165.7191938244354</v>
       </c>
       <c r="F3" t="n">
-        <v>19.18463585132036</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="G3" t="n">
-        <v>19.18463585132036</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="H3" t="n">
-        <v>19.18463585132036</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="I3" t="n">
-        <v>19.18463585132036</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="J3" t="n">
-        <v>19.18463585132036</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="K3" t="n">
-        <v>86.79245551467723</v>
+        <v>86.79245551467741</v>
       </c>
       <c r="L3" t="n">
-        <v>224.022053530371</v>
+        <v>224.0220535303713</v>
       </c>
       <c r="M3" t="n">
-        <v>403.5193898849756</v>
+        <v>403.5193898849761</v>
       </c>
       <c r="N3" t="n">
-        <v>602.17613153764</v>
+        <v>640.9292585450661</v>
       </c>
       <c r="O3" t="n">
-        <v>761.6884442064004</v>
+        <v>827.8052238367443</v>
       </c>
       <c r="P3" t="n">
-        <v>870.378071733699</v>
+        <v>936.4948513640431</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.231792566018</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="R3" t="n">
-        <v>938.1198929682048</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="S3" t="n">
-        <v>938.1198929682048</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="T3" t="n">
-        <v>938.1198929682048</v>
+        <v>816.5594247923373</v>
       </c>
       <c r="U3" t="n">
-        <v>872.5426305160695</v>
+        <v>816.5594247923373</v>
       </c>
       <c r="V3" t="n">
-        <v>637.3905222843267</v>
+        <v>816.5594247923373</v>
       </c>
       <c r="W3" t="n">
-        <v>395.1602716363423</v>
+        <v>816.5594247923373</v>
       </c>
       <c r="X3" t="n">
-        <v>395.1602716363423</v>
+        <v>816.5594247923373</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.3999728713884</v>
+        <v>816.5594247923373</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37.05922361068303</v>
+        <v>327.9127923402009</v>
       </c>
       <c r="C4" t="n">
-        <v>37.05922361068303</v>
+        <v>158.976609412294</v>
       </c>
       <c r="D4" t="n">
-        <v>37.05922361068303</v>
+        <v>158.976609412294</v>
       </c>
       <c r="E4" t="n">
-        <v>37.05922361068303</v>
+        <v>158.976609412294</v>
       </c>
       <c r="F4" t="n">
-        <v>37.05922361068303</v>
+        <v>158.976609412294</v>
       </c>
       <c r="G4" t="n">
-        <v>37.05922361068303</v>
+        <v>158.976609412294</v>
       </c>
       <c r="H4" t="n">
-        <v>37.05922361068303</v>
+        <v>158.976609412294</v>
       </c>
       <c r="I4" t="n">
-        <v>37.05922361068303</v>
+        <v>34.46493478662026</v>
       </c>
       <c r="J4" t="n">
-        <v>19.18463585132036</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="K4" t="n">
-        <v>120.2325654469301</v>
+        <v>120.2325654469302</v>
       </c>
       <c r="L4" t="n">
-        <v>305.0655603477483</v>
+        <v>305.0655603477485</v>
       </c>
       <c r="M4" t="n">
-        <v>510.3351610669861</v>
+        <v>510.3351610669864</v>
       </c>
       <c r="N4" t="n">
-        <v>656.2710011584438</v>
+        <v>716.1585259030907</v>
       </c>
       <c r="O4" t="n">
-        <v>830.3658965470427</v>
+        <v>890.2534212916895</v>
       </c>
       <c r="P4" t="n">
-        <v>955.8134731456582</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.231792566018</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="R4" t="n">
-        <v>907.3597149200723</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="S4" t="n">
-        <v>907.3597149200723</v>
+        <v>751.7915078184255</v>
       </c>
       <c r="T4" t="n">
-        <v>681.7305182324372</v>
+        <v>751.7915078184255</v>
       </c>
       <c r="U4" t="n">
-        <v>681.7305182324372</v>
+        <v>751.7915078184255</v>
       </c>
       <c r="V4" t="n">
-        <v>439.5002675844528</v>
+        <v>509.5612571704406</v>
       </c>
       <c r="W4" t="n">
-        <v>439.5002675844528</v>
+        <v>509.5612571704406</v>
       </c>
       <c r="X4" t="n">
-        <v>439.5002675844528</v>
+        <v>509.5612571704406</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.7076884409227</v>
+        <v>509.5612571704406</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>715.7454775461983</v>
+        <v>248.0405076452278</v>
       </c>
       <c r="C5" t="n">
-        <v>715.7454775461983</v>
+        <v>43.03965385861422</v>
       </c>
       <c r="D5" t="n">
-        <v>715.7454775461983</v>
+        <v>43.03965385861422</v>
       </c>
       <c r="E5" t="n">
-        <v>715.7454775461983</v>
+        <v>43.03965385861422</v>
       </c>
       <c r="F5" t="n">
-        <v>422.5227387438275</v>
+        <v>36.09415310941075</v>
       </c>
       <c r="G5" t="n">
-        <v>136.113024287024</v>
+        <v>23.22324091314745</v>
       </c>
       <c r="H5" t="n">
-        <v>136.113024287024</v>
+        <v>23.22324091314745</v>
       </c>
       <c r="I5" t="n">
-        <v>23.22324091314777</v>
+        <v>23.22324091314745</v>
       </c>
       <c r="J5" t="n">
-        <v>59.1367338295197</v>
+        <v>59.13673382951811</v>
       </c>
       <c r="K5" t="n">
-        <v>163.7002683444957</v>
+        <v>163.7002683444923</v>
       </c>
       <c r="L5" t="n">
-        <v>330.3223409084642</v>
+        <v>330.3223409084586</v>
       </c>
       <c r="M5" t="n">
-        <v>547.390938716287</v>
+        <v>547.390938716279</v>
       </c>
       <c r="N5" t="n">
-        <v>772.5857417537053</v>
+        <v>772.5857417536951</v>
       </c>
       <c r="O5" t="n">
-        <v>971.8955472416924</v>
+        <v>971.8955472416799</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.500854171414</v>
+        <v>1107.500854171399</v>
       </c>
       <c r="Q5" t="n">
-        <v>1161.162045657389</v>
+        <v>1161.162045657373</v>
       </c>
       <c r="R5" t="n">
-        <v>1161.162045657389</v>
+        <v>1161.162045657373</v>
       </c>
       <c r="S5" t="n">
-        <v>1008.968216348569</v>
+        <v>1008.968216348553</v>
       </c>
       <c r="T5" t="n">
-        <v>1008.968216348569</v>
+        <v>794.9408324602914</v>
       </c>
       <c r="U5" t="n">
-        <v>1008.968216348569</v>
+        <v>541.2632464475946</v>
       </c>
       <c r="V5" t="n">
-        <v>1008.968216348569</v>
+        <v>248.0405076452278</v>
       </c>
       <c r="W5" t="n">
-        <v>1008.968216348569</v>
+        <v>248.0405076452278</v>
       </c>
       <c r="X5" t="n">
-        <v>1008.968216348569</v>
+        <v>248.0405076452278</v>
       </c>
       <c r="Y5" t="n">
-        <v>1008.968216348569</v>
+        <v>248.0405076452278</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>524.2118915826896</v>
+        <v>505.8481348609812</v>
       </c>
       <c r="C6" t="n">
-        <v>349.7588623015627</v>
+        <v>331.3951055798542</v>
       </c>
       <c r="D6" t="n">
-        <v>349.7588623015627</v>
+        <v>182.460695918603</v>
       </c>
       <c r="E6" t="n">
-        <v>349.7588623015627</v>
+        <v>23.22324091314745</v>
       </c>
       <c r="F6" t="n">
-        <v>203.2243043284477</v>
+        <v>23.22324091314745</v>
       </c>
       <c r="G6" t="n">
-        <v>65.87732406840948</v>
+        <v>23.22324091314745</v>
       </c>
       <c r="H6" t="n">
-        <v>65.87732406840948</v>
+        <v>23.22324091314745</v>
       </c>
       <c r="I6" t="n">
-        <v>23.22324091314777</v>
+        <v>23.22324091314745</v>
       </c>
       <c r="J6" t="n">
-        <v>25.79522430508938</v>
+        <v>25.79522430508836</v>
       </c>
       <c r="K6" t="n">
-        <v>108.3459783063296</v>
+        <v>108.3459783063273</v>
       </c>
       <c r="L6" t="n">
-        <v>265.6681956119413</v>
+        <v>265.6681956119376</v>
       </c>
       <c r="M6" t="n">
-        <v>468.6126709702539</v>
+        <v>468.6126709702483</v>
       </c>
       <c r="N6" t="n">
-        <v>691.3371276269148</v>
+        <v>691.3371276269074</v>
       </c>
       <c r="O6" t="n">
-        <v>872.8666975145456</v>
+        <v>872.8666975145366</v>
       </c>
       <c r="P6" t="n">
-        <v>999.2271150356722</v>
+        <v>1126.612649313214</v>
       </c>
       <c r="Q6" t="n">
-        <v>1161.162045657389</v>
+        <v>1161.162045657373</v>
       </c>
       <c r="R6" t="n">
-        <v>1145.91230589183</v>
+        <v>1145.912305891813</v>
       </c>
       <c r="S6" t="n">
-        <v>998.199278190576</v>
+        <v>1145.912305891813</v>
       </c>
       <c r="T6" t="n">
-        <v>998.199278190576</v>
+        <v>1145.912305891813</v>
       </c>
       <c r="U6" t="n">
-        <v>998.199278190576</v>
+        <v>1145.912305891813</v>
       </c>
       <c r="V6" t="n">
-        <v>998.199278190576</v>
+        <v>1145.912305891813</v>
       </c>
       <c r="W6" t="n">
-        <v>900.2787288082905</v>
+        <v>1089.675270851536</v>
       </c>
       <c r="X6" t="n">
-        <v>692.4272286027576</v>
+        <v>881.8237706460031</v>
       </c>
       <c r="Y6" t="n">
-        <v>692.4272286027576</v>
+        <v>674.0634718810493</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.4376569253022</v>
+        <v>196.6650456210498</v>
       </c>
       <c r="C7" t="n">
-        <v>35.50147399739528</v>
+        <v>196.6650456210498</v>
       </c>
       <c r="D7" t="n">
-        <v>35.50147399739528</v>
+        <v>46.54840620871408</v>
       </c>
       <c r="E7" t="n">
-        <v>35.50147399739528</v>
+        <v>46.54840620871408</v>
       </c>
       <c r="F7" t="n">
-        <v>35.50147399739528</v>
+        <v>46.54840620871408</v>
       </c>
       <c r="G7" t="n">
-        <v>35.50147399739528</v>
+        <v>35.50147399739539</v>
       </c>
       <c r="H7" t="n">
-        <v>35.50147399739528</v>
+        <v>35.50147399739539</v>
       </c>
       <c r="I7" t="n">
-        <v>35.50147399739528</v>
+        <v>35.50147399739539</v>
       </c>
       <c r="J7" t="n">
-        <v>23.22324091314777</v>
+        <v>23.22324091314745</v>
       </c>
       <c r="K7" t="n">
-        <v>133.2846894279149</v>
+        <v>133.2846894279139</v>
       </c>
       <c r="L7" t="n">
-        <v>329.6518852993044</v>
+        <v>329.6518852993024</v>
       </c>
       <c r="M7" t="n">
-        <v>547.0826837276995</v>
+        <v>547.0826837276966</v>
       </c>
       <c r="N7" t="n">
-        <v>764.7780801730507</v>
+        <v>764.7780801730469</v>
       </c>
       <c r="O7" t="n">
-        <v>949.8387182967872</v>
+        <v>949.8387182967824</v>
       </c>
       <c r="P7" t="n">
-        <v>1084.669382195909</v>
+        <v>1084.669382195903</v>
       </c>
       <c r="Q7" t="n">
-        <v>1094.584064899865</v>
+        <v>1094.584064899859</v>
       </c>
       <c r="R7" t="n">
-        <v>967.6652614208776</v>
+        <v>1094.584064899859</v>
       </c>
       <c r="S7" t="n">
-        <v>967.6652614208776</v>
+        <v>888.5232596317802</v>
       </c>
       <c r="T7" t="n">
-        <v>967.6652614208776</v>
+        <v>888.5232596317802</v>
       </c>
       <c r="U7" t="n">
-        <v>967.6652614208776</v>
+        <v>888.5232596317802</v>
       </c>
       <c r="V7" t="n">
-        <v>942.6369570038103</v>
+        <v>888.5232596317802</v>
       </c>
       <c r="W7" t="n">
-        <v>653.2197869668496</v>
+        <v>599.1060895948197</v>
       </c>
       <c r="X7" t="n">
-        <v>425.2302360688323</v>
+        <v>599.1060895948197</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.4376569253022</v>
+        <v>378.3135104512895</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1471.210842731383</v>
+        <v>825.1084884956169</v>
       </c>
       <c r="C8" t="n">
-        <v>1471.210842731383</v>
+        <v>456.1459715552052</v>
       </c>
       <c r="D8" t="n">
-        <v>1112.945144124632</v>
+        <v>97.88027294845472</v>
       </c>
       <c r="E8" t="n">
-        <v>1112.945144124632</v>
+        <v>97.88027294845472</v>
       </c>
       <c r="F8" t="n">
-        <v>701.9592393350247</v>
+        <v>90.93477219925124</v>
       </c>
       <c r="G8" t="n">
-        <v>286.2544890593135</v>
+        <v>79.27042596394419</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>79.27042596394419</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362826</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816102</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872947</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923566</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230823</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740848</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721765007</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056584</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X8" t="n">
-        <v>1857.810682795504</v>
+        <v>1601.84766053555</v>
       </c>
       <c r="Y8" t="n">
-        <v>1857.810682795504</v>
+        <v>1211.708328559739</v>
       </c>
     </row>
     <row r="9">
@@ -4865,46 +4865,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756897</v>
       </c>
       <c r="G9" t="n">
         <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057882</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500118</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143496</v>
+        <v>560.1394111735154</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458213</v>
+        <v>854.8429682049882</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105041</v>
+        <v>1218.10498716421</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1605.390115761156</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>1937.460550937319</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.2996089082458</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>201.3634259803388</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2467865680031</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312227</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020483</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693248</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096608</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1123.088724245826</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999038</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171028</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="T10" t="n">
-        <v>1316.842311124863</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="U10" t="n">
-        <v>1316.842311124863</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="V10" t="n">
-        <v>1062.157822918976</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>772.7406528820156</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>772.7406528820156</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>551.9480737384855</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5035,22 +5035,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5059,10 +5059,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703114</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424045</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>376.4492432300688</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>376.4492432300688</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>229.5592957321584</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5272,25 +5272,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5317,10 +5317,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,22 +5360,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5442,46 +5442,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797783</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570821</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510512</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.38585385471</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5512,19 +5512,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2445.104913453049</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2445.104913453049</v>
+        <v>2240.764831803678</v>
       </c>
       <c r="T19" t="n">
-        <v>2225.50344847599</v>
+        <v>2021.163366826619</v>
       </c>
       <c r="U19" t="n">
-        <v>1936.428221820188</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V19" t="n">
-        <v>1936.428221820188</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1187.986481927969</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="20">
@@ -5746,55 +5746,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>719.5738700011939</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C22" t="n">
-        <v>550.637687073287</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W22" t="n">
-        <v>1168.356000042741</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X22" t="n">
-        <v>940.366449144724</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y22" t="n">
-        <v>719.5738700011939</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C25" t="n">
-        <v>473.9330993947872</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D25" t="n">
-        <v>323.8164599824514</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E25" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,7 +6238,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>738.7889117913853</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1366.386875345992</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>734.6461798836018</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>491.0125592675714</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6429,7 +6429,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138415</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362708</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="30">
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2824.769373306004</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>2655.833190378097</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>2505.716550965761</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>2505.716550965761</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>2505.716550965761</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024107</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782918</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038305</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797707</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053499</v>
+        <v>2264.108249235162</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.37685307644</v>
+        <v>2044.506784258103</v>
       </c>
       <c r="U31" t="n">
-        <v>3999.301626420638</v>
+        <v>1755.4315576023</v>
       </c>
       <c r="V31" t="n">
-        <v>3744.617138214751</v>
+        <v>1500.747069396414</v>
       </c>
       <c r="W31" t="n">
-        <v>3455.199968177791</v>
+        <v>1211.329899359453</v>
       </c>
       <c r="X31" t="n">
-        <v>3227.210417279774</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>3006.417838136244</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,13 +6688,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6703,46 +6703,46 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O33" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1022.872235754091</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6864,46 +6864,46 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797697</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.792692443183</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="W34" t="n">
-        <v>1653.302830625878</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X34" t="n">
-        <v>1425.313279727861</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>1204.520700584331</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1098.667160263527</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7165,61 +7165,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192656</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111723</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C40" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D40" t="n">
-        <v>422.7903292978459</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E40" t="n">
-        <v>422.7903292978459</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1144.284195611858</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y40" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,61 +7399,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O42" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3158.973599365703</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C43" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>3897.172899444211</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>3607.75572940725</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>3379.766178509233</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y43" t="n">
-        <v>3158.973599365703</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>781.8178837532264</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D46" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928469</v>
+        <v>6.233205181928398</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8069,16 +8069,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>39.14457273477308</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>27.64005315446224</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>66.78462588923453</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8148,16 +8148,16 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>111.3252676074451</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>77.96696197637944</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>61.89011047839804</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.74236624506781</v>
+        <v>54.74236624506867</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>128.6722568460119</v>
       </c>
       <c r="Q6" t="n">
-        <v>128.6722568460167</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780643</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>265.0304328515069</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154957</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>31.13893193492419</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856153</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.2941372823665</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>191.880736471158</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>147.0213775686981</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>64.53565828418191</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>43.26526345294928</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>92.12028678808259</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>23.83108638657416</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>127.7255247667962</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>115.0314858713389</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>74.66500970697015</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>139.4693302300315</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>72.1196935303893</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>75.03697526434064</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>66.7327702025963</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>146.9958004224553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>41.29766760034539</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194134</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>33.11252040078162</v>
+        <v>57.22910392194137</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>116.6691671648107</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>215.126010954363</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>837857.956542889</v>
+        <v>837857.9565428891</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>839326.9724257692</v>
+        <v>839326.9724257691</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>845124.5041666715</v>
+        <v>845124.5041666713</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902525</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>819345.4789902525</v>
+        <v>819345.4789902526</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902525</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902525</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>819345.4789902525</v>
+        <v>819345.4789902526</v>
       </c>
     </row>
     <row r="15">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982123</v>
+      </c>
+      <c r="C2" t="n">
+        <v>615781.3273982123</v>
+      </c>
+      <c r="D2" t="n">
         <v>615781.3273982124</v>
       </c>
-      <c r="C2" t="n">
-        <v>615781.327398212</v>
-      </c>
-      <c r="D2" t="n">
-        <v>615781.3273982125</v>
-      </c>
       <c r="E2" t="n">
+        <v>605359.9497675047</v>
+      </c>
+      <c r="F2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="G2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="H2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="J2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="L2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="G2" t="n">
-        <v>605359.9497675039</v>
-      </c>
-      <c r="H2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675047</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>605359.9497675042</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675041</v>
       </c>
       <c r="N2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="P2" t="n">
         <v>605359.9497675044</v>
@@ -26365,43 +26365,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>652246.4444800889</v>
+        <v>652246.4444800895</v>
       </c>
       <c r="C3" t="n">
-        <v>55881.32342211055</v>
+        <v>55881.32342210569</v>
       </c>
       <c r="D3" t="n">
-        <v>363279.8866276231</v>
+        <v>363279.8866276294</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.4416245439</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.31078353576</v>
+        <v>62744.31078353593</v>
       </c>
       <c r="K3" t="n">
-        <v>12992.59634440502</v>
+        <v>12992.59634440407</v>
       </c>
       <c r="L3" t="n">
-        <v>88656.33991666231</v>
+        <v>88656.33991666342</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289265</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>5.19711258155959e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>261062.8075060264</v>
+        <v>261062.8075060263</v>
       </c>
       <c r="C4" t="n">
-        <v>246054.6603431036</v>
+        <v>246054.6603431048</v>
       </c>
       <c r="D4" t="n">
-        <v>143951.0939828189</v>
+        <v>143951.0939828186</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683049</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683049</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="H4" t="n">
         <v>12996.86414683044</v>
@@ -26444,19 +26444,19 @@
         <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683028</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683028</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683039</v>
+        <v>12996.86414683034</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683031</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683035</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61145.70223437328</v>
+        <v>61145.70223437332</v>
       </c>
       <c r="C5" t="n">
-        <v>65162.40123302708</v>
+        <v>65162.40123302676</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984476</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-358673.6268222762</v>
+        <v>-358673.6268222768</v>
       </c>
       <c r="C6" t="n">
-        <v>248682.9423999709</v>
+        <v>248682.9423999751</v>
       </c>
       <c r="D6" t="n">
-        <v>15612.57434792581</v>
+        <v>15612.57434791967</v>
       </c>
       <c r="E6" t="n">
-        <v>-16244.88582777939</v>
+        <v>-16592.26508213369</v>
       </c>
       <c r="F6" t="n">
-        <v>491240.5557967671</v>
+        <v>490893.17654241</v>
       </c>
       <c r="G6" t="n">
-        <v>491240.5557967664</v>
+        <v>490893.1765424092</v>
       </c>
       <c r="H6" t="n">
-        <v>491240.5557967668</v>
+        <v>490893.1765424095</v>
       </c>
       <c r="I6" t="n">
-        <v>491240.5557967671</v>
+        <v>490893.1765424096</v>
       </c>
       <c r="J6" t="n">
-        <v>428496.2450132311</v>
+        <v>428148.8657588738</v>
       </c>
       <c r="K6" t="n">
-        <v>478247.9594523617</v>
+        <v>477900.5801980061</v>
       </c>
       <c r="L6" t="n">
-        <v>402584.2158801047</v>
+        <v>402236.8366257466</v>
       </c>
       <c r="M6" t="n">
-        <v>358633.2620678401</v>
+        <v>358285.8828134831</v>
       </c>
       <c r="N6" t="n">
-        <v>491240.5557967668</v>
+        <v>490893.17654241</v>
       </c>
       <c r="O6" t="n">
-        <v>491240.5557967666</v>
+        <v>490893.1765424099</v>
       </c>
       <c r="P6" t="n">
-        <v>491240.5557967668</v>
+        <v>490893.17654241</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.419150020582837e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.419150020582837e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.419150020582837e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.419150020582837e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.419150020582837e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380646</v>
+        <v>593.476100338065</v>
       </c>
       <c r="C3" t="n">
-        <v>636.9329421575586</v>
+        <v>636.9329421575552</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175416</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415045</v>
+        <v>239.807948141505</v>
       </c>
       <c r="C4" t="n">
-        <v>290.2905114143472</v>
+        <v>290.2905114143431</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,10 +26807,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="I4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26819,16 +26819,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.419150020582837e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26959,34 +26959,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380646</v>
+        <v>593.476100338065</v>
       </c>
       <c r="C3" t="n">
-        <v>43.456841819494</v>
+        <v>43.45684181949025</v>
       </c>
       <c r="D3" t="n">
-        <v>297.1319499599805</v>
+        <v>297.1319499599864</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241321</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415045</v>
+        <v>239.807948141505</v>
       </c>
       <c r="C4" t="n">
-        <v>50.48256327284265</v>
+        <v>50.48256327283815</v>
       </c>
       <c r="D4" t="n">
-        <v>350.2943206856916</v>
+        <v>350.2943206856957</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415043</v>
+        <v>239.807948141505</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327284287</v>
+        <v>50.48256327283883</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856913</v>
+        <v>350.2943206856957</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.419150020582837e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415045</v>
+        <v>239.807948141505</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327284265</v>
+        <v>50.48256327283815</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856916</v>
+        <v>350.2943206856957</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>114.8750934791784</v>
+        <v>114.8750934791779</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>142.1224219307568</v>
       </c>
       <c r="F2" t="n">
-        <v>167.0680976002069</v>
+        <v>336.0669110662118</v>
       </c>
       <c r="G2" t="n">
-        <v>201.6940632228996</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938904</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
-        <v>87.94431032863039</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27460,25 +27460,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664346</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
-        <v>45.4458084395867</v>
+        <v>45.44580843958668</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.90078060183511</v>
       </c>
       <c r="S3" t="n">
         <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0194028815133</v>
+        <v>53.77375878556731</v>
       </c>
       <c r="U3" t="n">
-        <v>160.9359097863319</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>11.88703501941509</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27557,10 +27557,10 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2.568345935822137</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>77.81982479830505</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>12.32969518232349</v>
+        <v>12.32969518232298</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92.4433302491334</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>162.3220465222601</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>116.5855343273643</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>129.1965857620652</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>313.2517287735718</v>
+        <v>313.2517287735719</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>111.760885540138</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>211.8871100493787</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1408101525697</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>37.46174705579176</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27700,22 +27700,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.9735104574378</v>
       </c>
       <c r="H6" t="n">
-        <v>99.00406368337434</v>
+        <v>99.00406368337441</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>42.22754232370933</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>146.2358974242412</v>
       </c>
       <c r="T6" t="n">
         <v>194.6426402623424</v>
@@ -27757,13 +27757,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>154.7536392724569</v>
+        <v>196.0203184710453</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8424117578468</v>
+        <v>155.9059488686413</v>
       </c>
       <c r="H7" t="n">
         <v>152.0153623856348</v>
       </c>
       <c r="I7" t="n">
-        <v>120.9099147197631</v>
+        <v>120.9099147197633</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>125.6496154441979</v>
       </c>
       <c r="S7" t="n">
-        <v>204.0001972153978</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.0380733165757</v>
@@ -27833,13 +27833,13 @@
         <v>286.2563802146393</v>
       </c>
       <c r="V7" t="n">
-        <v>227.3596219509313</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>68.36092709600806</v>
+        <v>301.0185525624053</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>37.96650967048846</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>104.7965952039004</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617374</v>
       </c>
       <c r="T10" t="n">
-        <v>200.5609579183856</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>235.246405995768</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28268,7 +28268,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>3.993567224040755e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28514,7 +28514,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>3.993567224040755e-12</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28632,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>9.56674739427399e-13</v>
       </c>
     </row>
     <row r="18">
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-1.773204217854607e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29693,7 +29693,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>-4.111788957848096e-12</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>-1.833200258261058e-12</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29936,7 +29936,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>-5.195840325039423e-12</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>-2.103206497849897e-12</v>
       </c>
       <c r="H35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-2.701199264265597e-12</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-1.833200258261058e-12</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.385833569198248</v>
+        <v>2.385833569198249</v>
       </c>
       <c r="H2" t="n">
-        <v>24.43391804055156</v>
+        <v>24.43391804055157</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651554</v>
+        <v>91.97984867651559</v>
       </c>
       <c r="J2" t="n">
-        <v>202.49464189374</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K2" t="n">
-        <v>303.4869768779019</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L2" t="n">
-        <v>376.5024309712528</v>
+        <v>376.502430971253</v>
       </c>
       <c r="M2" t="n">
-        <v>418.9314987074821</v>
+        <v>418.9314987074824</v>
       </c>
       <c r="N2" t="n">
-        <v>425.7102483359667</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O2" t="n">
-        <v>401.9861157822516</v>
+        <v>401.9861157822518</v>
       </c>
       <c r="P2" t="n">
-        <v>343.0858495426698</v>
+        <v>343.08584954267</v>
       </c>
       <c r="Q2" t="n">
-        <v>257.6431848457574</v>
+        <v>257.6431848457576</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411496</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810513</v>
+        <v>54.36718245810516</v>
       </c>
       <c r="T2" t="n">
-        <v>10.44398644916533</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1908666855358598</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.276533498840365</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H3" t="n">
         <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>43.95082441182838</v>
+        <v>43.9508244118284</v>
       </c>
       <c r="J3" t="n">
-        <v>120.6044214847382</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K3" t="n">
-        <v>206.1321659070427</v>
+        <v>206.1321659070428</v>
       </c>
       <c r="L3" t="n">
-        <v>277.170135351282</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M3" t="n">
-        <v>323.4444746842452</v>
+        <v>323.4444746842453</v>
       </c>
       <c r="N3" t="n">
-        <v>332.0050874900651</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947075</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P3" t="n">
-        <v>243.7619099671572</v>
+        <v>243.7619099671573</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.9483813607456</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080798</v>
+        <v>79.25705355080802</v>
       </c>
       <c r="S3" t="n">
-        <v>23.71104985784624</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308313</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08398246702897144</v>
+        <v>0.0839824670289715</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.070202803888313</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207009</v>
+        <v>9.515075838207014</v>
       </c>
       <c r="I4" t="n">
-        <v>32.18391704784128</v>
+        <v>32.1839170478413</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490373</v>
+        <v>75.66333823490378</v>
       </c>
       <c r="K4" t="n">
-        <v>124.338107579024</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L4" t="n">
-        <v>159.1099695889952</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M4" t="n">
-        <v>167.7591540676925</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N4" t="n">
-        <v>163.770216344109</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O4" t="n">
-        <v>151.2683017714136</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P4" t="n">
-        <v>129.4361645720919</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.61489115104776</v>
+        <v>89.6148911510478</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937814</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S4" t="n">
-        <v>18.6507161368536</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522791</v>
+        <v>4.572684707522794</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05837469839390805</v>
+        <v>0.05837469839390809</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.560534440834405</v>
+        <v>2.560534440834391</v>
       </c>
       <c r="H5" t="n">
-        <v>26.22307334219535</v>
+        <v>26.22307334219521</v>
       </c>
       <c r="I5" t="n">
-        <v>98.71500403026847</v>
+        <v>98.71500403026795</v>
       </c>
       <c r="J5" t="n">
-        <v>217.3221599977692</v>
+        <v>217.3221599977681</v>
       </c>
       <c r="K5" t="n">
-        <v>325.7095828782897</v>
+        <v>325.7095828782879</v>
       </c>
       <c r="L5" t="n">
-        <v>404.0715387719757</v>
+        <v>404.0715387719735</v>
       </c>
       <c r="M5" t="n">
-        <v>449.6074431341644</v>
+        <v>449.6074431341621</v>
       </c>
       <c r="N5" t="n">
-        <v>456.8825616141852</v>
+        <v>456.8825616141828</v>
       </c>
       <c r="O5" t="n">
-        <v>431.4212472681381</v>
+        <v>431.4212472681358</v>
       </c>
       <c r="P5" t="n">
-        <v>368.2080532600387</v>
+        <v>368.2080532600367</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.5089135976565</v>
+        <v>276.508913597655</v>
       </c>
       <c r="R5" t="n">
-        <v>160.8431715690643</v>
+        <v>160.8431715690635</v>
       </c>
       <c r="S5" t="n">
-        <v>58.34817857051405</v>
+        <v>58.34817857051374</v>
       </c>
       <c r="T5" t="n">
-        <v>11.20873951475261</v>
+        <v>11.20873951475255</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2048427552667523</v>
+        <v>0.2048427552667512</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.370006705772862</v>
+        <v>1.370006705772855</v>
       </c>
       <c r="H6" t="n">
-        <v>13.23138055312212</v>
+        <v>13.23138055312205</v>
       </c>
       <c r="I6" t="n">
-        <v>47.169090527706</v>
+        <v>47.16909052770575</v>
       </c>
       <c r="J6" t="n">
-        <v>129.4355896888299</v>
+        <v>129.4355896888292</v>
       </c>
       <c r="K6" t="n">
-        <v>221.2260389756117</v>
+        <v>221.2260389756105</v>
       </c>
       <c r="L6" t="n">
-        <v>297.4657103916032</v>
+        <v>297.4657103916016</v>
       </c>
       <c r="M6" t="n">
-        <v>347.1284534758694</v>
+        <v>347.1284534758676</v>
       </c>
       <c r="N6" t="n">
-        <v>356.3159107264252</v>
+        <v>356.3159107264233</v>
       </c>
       <c r="O6" t="n">
-        <v>325.9594463511423</v>
+        <v>325.9594463511405</v>
       </c>
       <c r="P6" t="n">
-        <v>261.6111927892056</v>
+        <v>261.6111927892042</v>
       </c>
       <c r="Q6" t="n">
-        <v>174.8801542316376</v>
+        <v>174.8801542316367</v>
       </c>
       <c r="R6" t="n">
-        <v>85.06059178473966</v>
+        <v>85.0605917847392</v>
       </c>
       <c r="S6" t="n">
-        <v>25.44727367959678</v>
+        <v>25.44727367959665</v>
       </c>
       <c r="T6" t="n">
-        <v>5.522088432479209</v>
+        <v>5.52208843247918</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09013202011663569</v>
+        <v>0.09013202011663521</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.148567600611991</v>
+        <v>1.148567600611985</v>
       </c>
       <c r="H7" t="n">
-        <v>10.2118101218048</v>
+        <v>10.21181012180474</v>
       </c>
       <c r="I7" t="n">
-        <v>34.54056020749515</v>
+        <v>34.54056020749497</v>
       </c>
       <c r="J7" t="n">
-        <v>81.20372936326774</v>
+        <v>81.20372936326731</v>
       </c>
       <c r="K7" t="n">
-        <v>133.4426721438294</v>
+        <v>133.4426721438287</v>
       </c>
       <c r="L7" t="n">
-        <v>170.7606776400773</v>
+        <v>170.7606776400764</v>
       </c>
       <c r="M7" t="n">
-        <v>180.0431921577505</v>
+        <v>180.0431921577495</v>
       </c>
       <c r="N7" t="n">
-        <v>175.7621674645605</v>
+        <v>175.7621674645596</v>
       </c>
       <c r="O7" t="n">
-        <v>162.344809584684</v>
+        <v>162.3448095846831</v>
       </c>
       <c r="P7" t="n">
-        <v>138.9140305321993</v>
+        <v>138.9140305321985</v>
       </c>
       <c r="Q7" t="n">
-        <v>96.17687426579134</v>
+        <v>96.17687426579083</v>
       </c>
       <c r="R7" t="n">
-        <v>51.64377593297186</v>
+        <v>51.64377593297159</v>
       </c>
       <c r="S7" t="n">
-        <v>20.01640082157441</v>
+        <v>20.01640082157431</v>
       </c>
       <c r="T7" t="n">
-        <v>4.907516111705777</v>
+        <v>4.907516111705752</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06264914185156321</v>
+        <v>0.06264914185156287</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181069</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336188</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979358</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491908</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857155</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767395</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730021</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342241</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166611</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190659</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147062</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235318</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745119</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.43766458389764</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744855</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347165</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380026</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436511</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575846</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178446</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177255</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040601</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762085</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405686</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378635</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168767</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624144</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997911</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000194</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675767</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654583</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231076</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335784</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.085617475379</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6942511682324</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227914</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849634</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067965</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154679</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169142</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097488</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759605</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523486</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.19689343106958</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529025009</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>282.8216163968498</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32080,13 +32080,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32095,10 +32095,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,16 +32785,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,19 +33022,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
@@ -33043,10 +33043,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>353.2560498238272</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33174,40 +33174,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33216,7 +33216,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,37 +33259,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>282.8216163968498</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33356,7 +33356,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,40 +33411,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33453,7 +33453,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,28 +33496,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P33" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,7 +33526,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33593,7 +33593,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P42" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.4487373670537</v>
+        <v>21.44873736705381</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292135</v>
+        <v>83.39712583292152</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012656</v>
+        <v>140.7360160012658</v>
       </c>
       <c r="M2" t="n">
-        <v>188.5852654802094</v>
+        <v>188.5852654802096</v>
       </c>
       <c r="N2" t="n">
-        <v>196.2971847393758</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O2" t="n">
-        <v>171.8879043605649</v>
+        <v>171.8879043605651</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874002</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130796</v>
+        <v>35.33749497130813</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>68.2907269326837</v>
+        <v>68.29072693268384</v>
       </c>
       <c r="L3" t="n">
-        <v>138.6157555714078</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M3" t="n">
-        <v>181.3104407622268</v>
+        <v>181.310440762227</v>
       </c>
       <c r="N3" t="n">
-        <v>200.6633754067318</v>
+        <v>239.807948141505</v>
       </c>
       <c r="O3" t="n">
-        <v>161.123548150263</v>
+        <v>188.7636013047255</v>
       </c>
       <c r="P3" t="n">
-        <v>109.7875025528269</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q3" t="n">
-        <v>89.75123316395862</v>
+        <v>22.9666072747242</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>102.0686157531411</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L4" t="n">
-        <v>186.6999948493114</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M4" t="n">
-        <v>207.3430310295331</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N4" t="n">
-        <v>147.4099394863209</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O4" t="n">
-        <v>175.8534296854533</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P4" t="n">
-        <v>126.7147238369854</v>
+        <v>69.67512249932382</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.452847899353372</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>36.27625547108295</v>
+        <v>36.27625547108178</v>
       </c>
       <c r="K5" t="n">
-        <v>105.6197318333091</v>
+        <v>105.6197318333074</v>
       </c>
       <c r="L5" t="n">
-        <v>168.3051238019884</v>
+        <v>168.3051238019862</v>
       </c>
       <c r="M5" t="n">
-        <v>219.2612099068917</v>
+        <v>219.2612099068893</v>
       </c>
       <c r="N5" t="n">
-        <v>227.4694980175943</v>
+        <v>227.4694980175919</v>
       </c>
       <c r="O5" t="n">
-        <v>201.3230358464514</v>
+        <v>201.3230358464491</v>
       </c>
       <c r="P5" t="n">
-        <v>136.9750575047692</v>
+        <v>136.9750575047672</v>
       </c>
       <c r="Q5" t="n">
-        <v>54.203223723207</v>
+        <v>54.20322372320553</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.597963022163242</v>
+        <v>2.597963022162531</v>
       </c>
       <c r="K6" t="n">
-        <v>83.38460000125269</v>
+        <v>83.3846000012515</v>
       </c>
       <c r="L6" t="n">
-        <v>158.9113306117291</v>
+        <v>158.9113306117275</v>
       </c>
       <c r="M6" t="n">
-        <v>204.9944195538511</v>
+        <v>204.9944195538492</v>
       </c>
       <c r="N6" t="n">
-        <v>224.9741986430919</v>
+        <v>224.97419864309</v>
       </c>
       <c r="O6" t="n">
-        <v>183.3632019066978</v>
+        <v>183.3632019066961</v>
       </c>
       <c r="P6" t="n">
-        <v>127.6367853748753</v>
+        <v>256.3090422208858</v>
       </c>
       <c r="Q6" t="n">
-        <v>163.5706369916328</v>
+        <v>34.89838014561516</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>111.1731803179466</v>
+        <v>111.1731803179459</v>
       </c>
       <c r="L7" t="n">
-        <v>198.3507029003934</v>
+        <v>198.3507029003925</v>
       </c>
       <c r="M7" t="n">
-        <v>219.6270691195911</v>
+        <v>219.6270691195901</v>
       </c>
       <c r="N7" t="n">
-        <v>219.8943398437891</v>
+        <v>219.8943398437881</v>
       </c>
       <c r="O7" t="n">
-        <v>186.9299374987237</v>
+        <v>186.9299374987228</v>
       </c>
       <c r="P7" t="n">
-        <v>136.1925897970928</v>
+        <v>136.192589797092</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.01483101409696</v>
+        <v>10.01483101409644</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225045</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.564649540735</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067523</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457294</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376332</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949743</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637963</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402567</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939967</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091791</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215491</v>
+        <v>451.0527332560642</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378513</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820418</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928752</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961242</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>514.7099619750402</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308552</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870624</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423496</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.0112915831075</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468039</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860251</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295076</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818077</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.8817554580544</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>140.6875824748315</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35728,13 +35728,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35743,10 +35743,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,7 +35810,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191354</v>
       </c>
       <c r="M16" t="n">
         <v>426.2724270010451</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410452</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
@@ -36691,10 +36691,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>213.2742757378057</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>140.6875824748315</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326294934</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -37001,7 +37001,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P33" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191263</v>
       </c>
       <c r="M34" t="n">
         <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060455</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>477.9853321427316</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P42" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,19 +38101,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2269974.937085833</v>
+        <v>2271735.467388619</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>239.8079481415052</v>
       </c>
       <c r="D2" t="n">
-        <v>239.807948141505</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>239.807948141505</v>
+        <v>239.8079481415052</v>
       </c>
       <c r="F2" t="n">
-        <v>70.80913467549958</v>
+        <v>56.56995359489766</v>
       </c>
       <c r="G2" t="n">
-        <v>12.9169039459368</v>
+        <v>239.8079481415052</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -743,13 +743,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>22.30424107318737</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>141.245644095946</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -822,25 +822,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>122.6105862712741</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.12749594594686</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>239.807948141505</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>202.9508452487474</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.74220307430066</v>
+        <v>12.74220307430065</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>150.6718910157316</v>
+        <v>150.6718910157314</v>
       </c>
       <c r="T5" t="n">
         <v>211.8871100493788</v>
@@ -955,10 +955,10 @@
         <v>251.1408101525697</v>
       </c>
       <c r="V5" t="n">
-        <v>290.2905114143431</v>
+        <v>290.2905114143457</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>202.950845248755</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>70.44171064437853</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15.09724236790393</v>
+        <v>15.09724236790365</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>55.67466468987431</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>10.9364628892055</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>12.15545075340546</v>
+        <v>12.15545075340519</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.0001972153979</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>116.4861261777486</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295398</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>27.74340300198167</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987942</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802337</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>90.75043168514659</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8315678926962</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838587</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
         <v>192.0665623188214</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>50.98074812543258</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>197.2597383356325</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>6.228861054224446</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>60.25690685266998</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>81.07546534818425</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560526</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>137.7610225486953</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2083,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T22" t="n">
-        <v>125.2851635392057</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>171.1529885179052</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444159</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>104.4262124629293</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>153.5899618586479</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695709</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,16 +3243,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>219.4517041866478</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187887</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788180381</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634833</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428251</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695709</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766865</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881283</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>28.75188085812055</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>588.2168933305593</v>
+        <v>803.0167550628489</v>
       </c>
       <c r="C2" t="n">
-        <v>588.2168933305593</v>
+        <v>560.7865044148639</v>
       </c>
       <c r="D2" t="n">
-        <v>345.9866426825744</v>
+        <v>560.7865044148639</v>
       </c>
       <c r="E2" t="n">
-        <v>103.7563920345895</v>
+        <v>318.5562537668789</v>
       </c>
       <c r="F2" t="n">
-        <v>32.23201357448889</v>
+        <v>261.4148864993055</v>
       </c>
       <c r="G2" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132042</v>
       </c>
       <c r="H2" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132042</v>
       </c>
       <c r="I2" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132042</v>
       </c>
       <c r="J2" t="n">
-        <v>40.41888584470337</v>
+        <v>40.41888584470428</v>
       </c>
       <c r="K2" t="n">
-        <v>122.9820404192956</v>
+        <v>122.9820404192966</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605488</v>
+        <v>262.3106962605499</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859564</v>
+        <v>449.0101090859574</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779391</v>
+        <v>643.3443219779399</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948986</v>
+        <v>813.5133472948994</v>
       </c>
       <c r="P2" t="n">
-        <v>924.2476725444251</v>
+        <v>924.2476725444257</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.2317925660201</v>
+        <v>959.2317925660208</v>
       </c>
       <c r="R2" t="n">
-        <v>959.2317925660201</v>
+        <v>959.2317925660208</v>
       </c>
       <c r="S2" t="n">
-        <v>803.0167550628482</v>
+        <v>803.0167550628489</v>
       </c>
       <c r="T2" t="n">
-        <v>588.2168933305593</v>
+        <v>803.0167550628489</v>
       </c>
       <c r="U2" t="n">
-        <v>588.2168933305593</v>
+        <v>803.0167550628489</v>
       </c>
       <c r="V2" t="n">
-        <v>588.2168933305593</v>
+        <v>803.0167550628489</v>
       </c>
       <c r="W2" t="n">
-        <v>588.2168933305593</v>
+        <v>803.0167550628489</v>
       </c>
       <c r="X2" t="n">
-        <v>588.2168933305593</v>
+        <v>803.0167550628489</v>
       </c>
       <c r="Y2" t="n">
-        <v>588.2168933305593</v>
+        <v>803.0167550628489</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>648.3440877722692</v>
+        <v>375.4046565754659</v>
       </c>
       <c r="C3" t="n">
-        <v>473.8910584911422</v>
+        <v>200.9516272943389</v>
       </c>
       <c r="D3" t="n">
-        <v>324.9566488298909</v>
+        <v>200.9516272943389</v>
       </c>
       <c r="E3" t="n">
-        <v>165.7191938244354</v>
+        <v>41.71417228888342</v>
       </c>
       <c r="F3" t="n">
-        <v>19.1846358513204</v>
+        <v>41.71417228888342</v>
       </c>
       <c r="G3" t="n">
-        <v>19.1846358513204</v>
+        <v>41.71417228888342</v>
       </c>
       <c r="H3" t="n">
-        <v>19.1846358513204</v>
+        <v>41.71417228888342</v>
       </c>
       <c r="I3" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132042</v>
       </c>
       <c r="J3" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132042</v>
       </c>
       <c r="K3" t="n">
-        <v>86.79245551467741</v>
+        <v>86.79245551467744</v>
       </c>
       <c r="L3" t="n">
-        <v>224.0220535303713</v>
+        <v>290.1388331607149</v>
       </c>
       <c r="M3" t="n">
-        <v>403.5193898849761</v>
+        <v>469.6361695153197</v>
       </c>
       <c r="N3" t="n">
-        <v>640.9292585450661</v>
+        <v>668.2929111679844</v>
       </c>
       <c r="O3" t="n">
-        <v>827.8052238367443</v>
+        <v>827.805223836745</v>
       </c>
       <c r="P3" t="n">
-        <v>936.4948513640431</v>
+        <v>936.4948513640438</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.2317925660201</v>
+        <v>959.2317925660208</v>
       </c>
       <c r="R3" t="n">
-        <v>959.2317925660201</v>
+        <v>959.2317925660208</v>
       </c>
       <c r="S3" t="n">
-        <v>959.2317925660201</v>
+        <v>959.2317925660208</v>
       </c>
       <c r="T3" t="n">
-        <v>816.5594247923373</v>
+        <v>959.2317925660208</v>
       </c>
       <c r="U3" t="n">
-        <v>816.5594247923373</v>
+        <v>959.2317925660208</v>
       </c>
       <c r="V3" t="n">
-        <v>816.5594247923373</v>
+        <v>959.2317925660208</v>
       </c>
       <c r="W3" t="n">
-        <v>816.5594247923373</v>
+        <v>959.2317925660208</v>
       </c>
       <c r="X3" t="n">
-        <v>816.5594247923373</v>
+        <v>751.3802923604879</v>
       </c>
       <c r="Y3" t="n">
-        <v>816.5594247923373</v>
+        <v>543.619993595534</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>327.9127923402009</v>
+        <v>777.583327735781</v>
       </c>
       <c r="C4" t="n">
-        <v>158.976609412294</v>
+        <v>608.6471448078742</v>
       </c>
       <c r="D4" t="n">
-        <v>158.976609412294</v>
+        <v>458.5305053955384</v>
       </c>
       <c r="E4" t="n">
-        <v>158.976609412294</v>
+        <v>334.6814283538474</v>
       </c>
       <c r="F4" t="n">
-        <v>158.976609412294</v>
+        <v>187.791480855937</v>
       </c>
       <c r="G4" t="n">
-        <v>158.976609412294</v>
+        <v>19.18463585132042</v>
       </c>
       <c r="H4" t="n">
-        <v>158.976609412294</v>
+        <v>19.18463585132042</v>
       </c>
       <c r="I4" t="n">
-        <v>34.46493478662026</v>
+        <v>19.18463585132042</v>
       </c>
       <c r="J4" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132042</v>
       </c>
       <c r="K4" t="n">
         <v>120.2325654469302</v>
       </c>
       <c r="L4" t="n">
-        <v>305.0655603477485</v>
+        <v>245.1780356031041</v>
       </c>
       <c r="M4" t="n">
-        <v>510.3351610669864</v>
+        <v>450.447636322342</v>
       </c>
       <c r="N4" t="n">
-        <v>716.1585259030907</v>
+        <v>656.2710011584463</v>
       </c>
       <c r="O4" t="n">
-        <v>890.2534212916895</v>
+        <v>830.3658965470452</v>
       </c>
       <c r="P4" t="n">
-        <v>959.2317925660201</v>
+        <v>955.8134731456609</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.2317925660201</v>
+        <v>959.2317925660208</v>
       </c>
       <c r="R4" t="n">
-        <v>959.2317925660201</v>
+        <v>959.2317925660208</v>
       </c>
       <c r="S4" t="n">
-        <v>751.7915078184255</v>
+        <v>959.2317925660208</v>
       </c>
       <c r="T4" t="n">
-        <v>751.7915078184255</v>
+        <v>959.2317925660208</v>
       </c>
       <c r="U4" t="n">
-        <v>751.7915078184255</v>
+        <v>959.2317925660208</v>
       </c>
       <c r="V4" t="n">
-        <v>509.5612571704406</v>
+        <v>959.2317925660208</v>
       </c>
       <c r="W4" t="n">
-        <v>509.5612571704406</v>
+        <v>959.2317925660208</v>
       </c>
       <c r="X4" t="n">
-        <v>509.5612571704406</v>
+        <v>959.2317925660208</v>
       </c>
       <c r="Y4" t="n">
-        <v>509.5612571704406</v>
+        <v>959.2317925660208</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>248.0405076452278</v>
+        <v>43.03965385861441</v>
       </c>
       <c r="C5" t="n">
-        <v>43.03965385861422</v>
+        <v>43.03965385861441</v>
       </c>
       <c r="D5" t="n">
-        <v>43.03965385861422</v>
+        <v>43.03965385861441</v>
       </c>
       <c r="E5" t="n">
-        <v>43.03965385861422</v>
+        <v>43.03965385861441</v>
       </c>
       <c r="F5" t="n">
-        <v>36.09415310941075</v>
+        <v>36.09415310941094</v>
       </c>
       <c r="G5" t="n">
-        <v>23.22324091314745</v>
+        <v>23.22324091314766</v>
       </c>
       <c r="H5" t="n">
-        <v>23.22324091314745</v>
+        <v>23.22324091314766</v>
       </c>
       <c r="I5" t="n">
-        <v>23.22324091314745</v>
+        <v>23.22324091314766</v>
       </c>
       <c r="J5" t="n">
-        <v>59.13673382951811</v>
+        <v>59.13673382951941</v>
       </c>
       <c r="K5" t="n">
-        <v>163.7002683444923</v>
+        <v>163.7002683444948</v>
       </c>
       <c r="L5" t="n">
-        <v>330.3223409084586</v>
+        <v>330.3223409084628</v>
       </c>
       <c r="M5" t="n">
-        <v>547.390938716279</v>
+        <v>547.3909387162844</v>
       </c>
       <c r="N5" t="n">
-        <v>772.5857417536951</v>
+        <v>772.5857417537018</v>
       </c>
       <c r="O5" t="n">
-        <v>971.8955472416799</v>
+        <v>971.8955472416878</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.500854171399</v>
+        <v>1107.500854171408</v>
       </c>
       <c r="Q5" t="n">
-        <v>1161.162045657373</v>
+        <v>1161.162045657383</v>
       </c>
       <c r="R5" t="n">
-        <v>1161.162045657373</v>
+        <v>1161.162045657383</v>
       </c>
       <c r="S5" t="n">
-        <v>1008.968216348553</v>
+        <v>1008.968216348563</v>
       </c>
       <c r="T5" t="n">
-        <v>794.9408324602914</v>
+        <v>794.9408324603017</v>
       </c>
       <c r="U5" t="n">
-        <v>541.2632464475946</v>
+        <v>541.2632464476051</v>
       </c>
       <c r="V5" t="n">
-        <v>248.0405076452278</v>
+        <v>248.0405076452357</v>
       </c>
       <c r="W5" t="n">
-        <v>248.0405076452278</v>
+        <v>43.03965385861441</v>
       </c>
       <c r="X5" t="n">
-        <v>248.0405076452278</v>
+        <v>43.03965385861441</v>
       </c>
       <c r="Y5" t="n">
-        <v>248.0405076452278</v>
+        <v>43.03965385861441</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>505.8481348609812</v>
+        <v>240.9110419613925</v>
       </c>
       <c r="C6" t="n">
-        <v>331.3951055798542</v>
+        <v>240.9110419613925</v>
       </c>
       <c r="D6" t="n">
-        <v>182.460695918603</v>
+        <v>240.9110419613925</v>
       </c>
       <c r="E6" t="n">
-        <v>23.22324091314745</v>
+        <v>240.9110419613925</v>
       </c>
       <c r="F6" t="n">
-        <v>23.22324091314745</v>
+        <v>94.3764839882775</v>
       </c>
       <c r="G6" t="n">
-        <v>23.22324091314745</v>
+        <v>94.3764839882775</v>
       </c>
       <c r="H6" t="n">
-        <v>23.22324091314745</v>
+        <v>23.22324091314766</v>
       </c>
       <c r="I6" t="n">
-        <v>23.22324091314745</v>
+        <v>23.22324091314766</v>
       </c>
       <c r="J6" t="n">
-        <v>25.79522430508836</v>
+        <v>25.79522430508901</v>
       </c>
       <c r="K6" t="n">
-        <v>108.3459783063273</v>
+        <v>108.3459783063287</v>
       </c>
       <c r="L6" t="n">
-        <v>265.6681956119376</v>
+        <v>265.6681956119399</v>
       </c>
       <c r="M6" t="n">
-        <v>468.6126709702483</v>
+        <v>468.6126709702518</v>
       </c>
       <c r="N6" t="n">
-        <v>691.3371276269074</v>
+        <v>691.337127626912</v>
       </c>
       <c r="O6" t="n">
-        <v>872.8666975145366</v>
+        <v>872.8666975145422</v>
       </c>
       <c r="P6" t="n">
-        <v>1126.612649313214</v>
+        <v>999.2271150356682</v>
       </c>
       <c r="Q6" t="n">
-        <v>1161.162045657373</v>
+        <v>1161.162045657383</v>
       </c>
       <c r="R6" t="n">
-        <v>1145.912305891813</v>
+        <v>1145.912305891824</v>
       </c>
       <c r="S6" t="n">
-        <v>1145.912305891813</v>
+        <v>1145.912305891824</v>
       </c>
       <c r="T6" t="n">
-        <v>1145.912305891813</v>
+        <v>1145.912305891824</v>
       </c>
       <c r="U6" t="n">
-        <v>1145.912305891813</v>
+        <v>1145.912305891824</v>
       </c>
       <c r="V6" t="n">
-        <v>1145.912305891813</v>
+        <v>910.7601976600808</v>
       </c>
       <c r="W6" t="n">
-        <v>1089.675270851536</v>
+        <v>656.5228409318793</v>
       </c>
       <c r="X6" t="n">
-        <v>881.8237706460031</v>
+        <v>448.6713407263464</v>
       </c>
       <c r="Y6" t="n">
-        <v>674.0634718810493</v>
+        <v>240.9110419613925</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>196.6650456210498</v>
+        <v>501.4442438355483</v>
       </c>
       <c r="C7" t="n">
-        <v>196.6650456210498</v>
+        <v>332.5080609076414</v>
       </c>
       <c r="D7" t="n">
-        <v>46.54840620871408</v>
+        <v>182.3914214953057</v>
       </c>
       <c r="E7" t="n">
-        <v>46.54840620871408</v>
+        <v>182.3914214953057</v>
       </c>
       <c r="F7" t="n">
-        <v>46.54840620871408</v>
+        <v>35.50147399739532</v>
       </c>
       <c r="G7" t="n">
-        <v>35.50147399739539</v>
+        <v>35.50147399739532</v>
       </c>
       <c r="H7" t="n">
-        <v>35.50147399739539</v>
+        <v>35.50147399739532</v>
       </c>
       <c r="I7" t="n">
-        <v>35.50147399739539</v>
+        <v>35.50147399739532</v>
       </c>
       <c r="J7" t="n">
-        <v>23.22324091314745</v>
+        <v>23.22324091314766</v>
       </c>
       <c r="K7" t="n">
-        <v>133.2846894279139</v>
+        <v>133.2846894279145</v>
       </c>
       <c r="L7" t="n">
-        <v>329.6518852993024</v>
+        <v>329.6518852993037</v>
       </c>
       <c r="M7" t="n">
-        <v>547.0826837276966</v>
+        <v>547.0826837276985</v>
       </c>
       <c r="N7" t="n">
-        <v>764.7780801730469</v>
+        <v>764.7780801730494</v>
       </c>
       <c r="O7" t="n">
-        <v>949.8387182967824</v>
+        <v>949.8387182967855</v>
       </c>
       <c r="P7" t="n">
-        <v>1084.669382195903</v>
+        <v>1084.669382195907</v>
       </c>
       <c r="Q7" t="n">
-        <v>1094.584064899859</v>
+        <v>1094.584064899863</v>
       </c>
       <c r="R7" t="n">
-        <v>1094.584064899859</v>
+        <v>1094.584064899863</v>
       </c>
       <c r="S7" t="n">
-        <v>888.5232596317802</v>
+        <v>1094.584064899863</v>
       </c>
       <c r="T7" t="n">
-        <v>888.5232596317802</v>
+        <v>1094.584064899863</v>
       </c>
       <c r="U7" t="n">
-        <v>888.5232596317802</v>
+        <v>1094.584064899863</v>
       </c>
       <c r="V7" t="n">
-        <v>888.5232596317802</v>
+        <v>839.899576693976</v>
       </c>
       <c r="W7" t="n">
-        <v>599.1060895948197</v>
+        <v>722.2368229790784</v>
       </c>
       <c r="X7" t="n">
-        <v>599.1060895948197</v>
+        <v>722.2368229790784</v>
       </c>
       <c r="Y7" t="n">
-        <v>378.3135104512895</v>
+        <v>501.4442438355483</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>825.1084884956169</v>
+        <v>898.5363853637798</v>
       </c>
       <c r="C8" t="n">
-        <v>456.1459715552052</v>
+        <v>898.5363853637798</v>
       </c>
       <c r="D8" t="n">
-        <v>97.88027294845472</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="E8" t="n">
-        <v>97.88027294845472</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F8" t="n">
-        <v>90.93477219925124</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G8" t="n">
-        <v>79.27042596394419</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>79.27042596394419</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362826</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816102</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872947</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923566</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230823</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740848</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721765007</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4834,22 +4834,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>2345.973018214356</v>
       </c>
       <c r="V8" t="n">
-        <v>1975.31341879663</v>
+        <v>2014.910130870785</v>
       </c>
       <c r="W8" t="n">
-        <v>1975.31341879663</v>
+        <v>1662.141475600671</v>
       </c>
       <c r="X8" t="n">
-        <v>1601.84766053555</v>
+        <v>1288.675717339592</v>
       </c>
       <c r="Y8" t="n">
-        <v>1211.708328559739</v>
+        <v>898.5363853637798</v>
       </c>
     </row>
     <row r="9">
@@ -4865,40 +4865,40 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756897</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057882</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500118</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735154</v>
+        <v>507.2413987429752</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049882</v>
+        <v>801.944955774447</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.10498716421</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761156</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937319</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4950,64 +4950,64 @@
         <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312227</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020483</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693248</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096608</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245826</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999038</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171028</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074502</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074502</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074502</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074502</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1584.950414897297</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1584.950414897297</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.533244860336</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.543693962319</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>665.1026499885492</v>
       </c>
     </row>
     <row r="11">
@@ -5035,19 +5035,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5068,7 +5068,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
@@ -5129,10 +5129,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5272,19 +5272,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5299,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5363,16 +5363,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5442,46 +5442,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797783</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832667</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487571</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510512</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.38585385471</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442288</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987577</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="17">
@@ -5512,19 +5512,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5591,13 +5591,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>557.5558870561822</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>388.6197041282753</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
         <v>388.6197041282753</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2240.764831803678</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2021.163366826619</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U19" t="n">
-        <v>1732.088140170817</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1477.40365196493</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1187.986481927969</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>959.9969310299521</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.2043518864219</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5746,55 +5746,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>789.7592298206043</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>620.8230468926974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803617</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2253.366709591041</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1964.291482935239</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1709.606994729352</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1420.189824692392</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1192.200273794374</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>971.4076946508441</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.624977674364</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,37 +6217,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362708</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782918</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038305</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797707</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235162</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258103</v>
+        <v>2341.482060890433</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.4315576023</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396414</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359453</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797697</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.792692443183</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1501.108204237296</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348533</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,61 +7165,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192656</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111723</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348533</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270452</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7390,70 +7390,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348533</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400721</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.294644713842</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703119</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,16 +7645,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7663,10 +7663,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,22 +8057,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928398</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>66.7846258892358</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>39.14457273477308</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27.64005315446224</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8142,7 +8142,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>101.9822523045397</v>
       </c>
       <c r="M4" t="n">
         <v>178.5096609094456</v>
@@ -8154,10 +8154,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>77.96696197637944</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.89011047839804</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.74236624506867</v>
+        <v>54.74236624506813</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>128.6722568460119</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>128.6722568460151</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>211.0329012241554</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515069</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154957</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>43.72409101823416</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856153</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.2941372823665</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>191.880736471158</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>144.6341900408529</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>43.26526345294928</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T22" t="n">
-        <v>92.12028678808259</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>115.0314858713389</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>112.979237864359</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>72.1196935303893</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>66.7327702025963</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194134</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194137</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>116.6691671648107</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>845124.5041666713</v>
+        <v>845124.5041666715</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902525</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902525</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902525</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902525</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>819345.4789902525</v>
+        <v>819345.4789902526</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902525</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675047</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="I2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.949767504</v>
       </c>
       <c r="K2" t="n">
         <v>605359.9497675045</v>
       </c>
       <c r="L2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="M2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="M2" t="n">
-        <v>605359.9497675042</v>
-      </c>
       <c r="N2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675046</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>652246.4444800895</v>
+        <v>652246.4444800896</v>
       </c>
       <c r="C3" t="n">
-        <v>55881.32342210569</v>
+        <v>55881.3234221083</v>
       </c>
       <c r="D3" t="n">
-        <v>363279.8866276294</v>
+        <v>363279.8866276248</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245439</v>
+        <v>507485.4416245455</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.31078353593</v>
+        <v>62744.31078353599</v>
       </c>
       <c r="K3" t="n">
-        <v>12992.59634440407</v>
+        <v>12992.59634440435</v>
       </c>
       <c r="L3" t="n">
-        <v>88656.33991666342</v>
+        <v>88656.33991666279</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26420,19 +26420,19 @@
         <v>261062.8075060263</v>
       </c>
       <c r="C4" t="n">
-        <v>246054.6603431048</v>
+        <v>246054.660343104</v>
       </c>
       <c r="D4" t="n">
-        <v>143951.0939828186</v>
+        <v>143951.0939828188</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683049</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683049</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
         <v>12996.86414683044</v>
@@ -26444,19 +26444,19 @@
         <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683028</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683028</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683034</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683031</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.86414683035</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61145.70223437332</v>
+        <v>61145.70223437333</v>
       </c>
       <c r="C5" t="n">
-        <v>65162.40123302676</v>
+        <v>65162.40123302697</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-358673.6268222768</v>
+        <v>-358673.6268222766</v>
       </c>
       <c r="C6" t="n">
-        <v>248682.9423999751</v>
+        <v>248682.9423999731</v>
       </c>
       <c r="D6" t="n">
-        <v>15612.57434791967</v>
+        <v>15612.57434792441</v>
       </c>
       <c r="E6" t="n">
-        <v>-16592.26508213369</v>
+        <v>-16279.62375321414</v>
       </c>
       <c r="F6" t="n">
-        <v>490893.17654241</v>
+        <v>491205.8178713311</v>
       </c>
       <c r="G6" t="n">
-        <v>490893.1765424092</v>
+        <v>491205.8178713309</v>
       </c>
       <c r="H6" t="n">
-        <v>490893.1765424095</v>
+        <v>491205.8178713309</v>
       </c>
       <c r="I6" t="n">
-        <v>490893.1765424096</v>
+        <v>491205.8178713309</v>
       </c>
       <c r="J6" t="n">
-        <v>428148.8657588738</v>
+        <v>428461.5070877948</v>
       </c>
       <c r="K6" t="n">
-        <v>477900.5801980061</v>
+        <v>478213.2215269269</v>
       </c>
       <c r="L6" t="n">
-        <v>402236.8366257466</v>
+        <v>402549.4779546682</v>
       </c>
       <c r="M6" t="n">
-        <v>358285.8828134831</v>
+        <v>358598.5241424044</v>
       </c>
       <c r="N6" t="n">
-        <v>490893.17654241</v>
+        <v>491205.8178713313</v>
       </c>
       <c r="O6" t="n">
-        <v>490893.1765424099</v>
+        <v>491205.8178713312</v>
       </c>
       <c r="P6" t="n">
-        <v>490893.17654241</v>
+        <v>491205.8178713314</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.476100338065</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="C3" t="n">
-        <v>636.9329421575552</v>
+        <v>636.9329421575574</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175416</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.807948141505</v>
+        <v>239.8079481415052</v>
       </c>
       <c r="C4" t="n">
-        <v>290.2905114143431</v>
+        <v>290.2905114143457</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,7 +26807,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26816,19 +26816,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.476100338065</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="C3" t="n">
-        <v>43.45684181949025</v>
+        <v>43.4568418194923</v>
       </c>
       <c r="D3" t="n">
-        <v>297.1319499599864</v>
+        <v>297.131949959982</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241321</v>
+        <v>433.9106082241342</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.807948141505</v>
+        <v>239.8079481415052</v>
       </c>
       <c r="C4" t="n">
-        <v>50.48256327283815</v>
+        <v>50.48256327284047</v>
       </c>
       <c r="D4" t="n">
-        <v>350.2943206856957</v>
+        <v>350.294320685693</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.807948141505</v>
+        <v>239.8079481415052</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327283883</v>
+        <v>50.48256327284024</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856957</v>
+        <v>350.2943206856933</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.807948141505</v>
+        <v>239.8079481415052</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327283815</v>
+        <v>50.48256327284047</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856957</v>
+        <v>350.294320685693</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>125.4649436295024</v>
       </c>
       <c r="D2" t="n">
-        <v>114.8750934791779</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>142.1224219307568</v>
+        <v>142.1224219307566</v>
       </c>
       <c r="F2" t="n">
-        <v>336.0669110662118</v>
+        <v>350.3060921468138</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>173.1089558044316</v>
       </c>
       <c r="H2" t="n">
         <v>315.0408840752156</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
         <v>251.1547862223006</v>
@@ -27463,13 +27463,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0669836643703</v>
@@ -27478,7 +27478,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44580843958668</v>
+        <v>23.1415673663993</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183511</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S3" t="n">
         <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
-        <v>53.77375878556731</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
         <v>225.8573996139459</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27542,25 +27542,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>23.82337637529511</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>2.568345935822137</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T4" t="n">
         <v>223.3729047207587</v>
@@ -27596,7 +27596,7 @@
         <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>12.32969518232298</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>162.3220465222601</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27636,7 +27636,7 @@
         <v>313.2517287735719</v>
       </c>
       <c r="I5" t="n">
-        <v>111.760885540138</v>
+        <v>111.7608855401376</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,10 +27675,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>37.46174705579176</v>
+        <v>37.4617470557892</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>146.290123468658</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.9735104574378</v>
       </c>
       <c r="H6" t="n">
-        <v>99.00406368337441</v>
+        <v>28.56235303899584</v>
       </c>
       <c r="I6" t="n">
-        <v>42.22754232370933</v>
+        <v>42.22754232370917</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>146.2358974242412</v>
+        <v>146.2358974242411</v>
       </c>
       <c r="T6" t="n">
         <v>194.6426402623424</v>
@@ -27754,10 +27754,10 @@
         <v>225.8512500608582</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>196.0203184710453</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>155.9059488686413</v>
+        <v>166.8424117578468</v>
       </c>
       <c r="H7" t="n">
         <v>152.0153623856348</v>
       </c>
       <c r="I7" t="n">
-        <v>120.9099147197633</v>
+        <v>120.9099147197632</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>125.6496154441979</v>
+        <v>125.6496154441977</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.0001972153979</v>
       </c>
       <c r="T7" t="n">
         <v>223.0380733165757</v>
@@ -27833,10 +27833,10 @@
         <v>286.2563802146393</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>170.0368721588424</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624053</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>37.96650967048846</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>160.2948184433154</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039004</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195734</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617374</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>235.246405995768</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>21.32491501646231</v>
       </c>
     </row>
     <row r="11">
@@ -28268,7 +28268,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>3.993567224040755e-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28514,7 +28514,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>3.993567224040755e-12</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28632,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.56674739427399e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-1.773204217854607e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29693,7 +29693,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-4.111788957848096e-12</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-1.833200258261058e-12</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29936,7 +29936,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-5.195840325039423e-12</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-2.701199264265597e-12</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-1.833200258261058e-12</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.385833569198249</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H2" t="n">
-        <v>24.43391804055157</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651559</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J2" t="n">
         <v>202.4946418937401</v>
@@ -31056,28 +31056,28 @@
         <v>303.4869768779021</v>
       </c>
       <c r="L2" t="n">
-        <v>376.502430971253</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M2" t="n">
-        <v>418.9314987074824</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N2" t="n">
         <v>425.710248335967</v>
       </c>
       <c r="O2" t="n">
-        <v>401.9861157822518</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P2" t="n">
-        <v>343.08584954267</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q2" t="n">
-        <v>257.6431848457576</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810516</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T2" t="n">
         <v>10.44398644916534</v>
@@ -31126,19 +31126,19 @@
         <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9508244118284</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J3" t="n">
         <v>120.6044214847383</v>
       </c>
       <c r="K3" t="n">
-        <v>206.1321659070428</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L3" t="n">
         <v>277.1701353512822</v>
       </c>
       <c r="M3" t="n">
-        <v>323.4444746842453</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N3" t="n">
         <v>332.0050874900653</v>
@@ -31147,22 +31147,22 @@
         <v>303.7197925947077</v>
       </c>
       <c r="P3" t="n">
-        <v>243.7619099671573</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q3" t="n">
         <v>162.9483813607457</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080802</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S3" t="n">
         <v>23.71104985784626</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0839824670289715</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,19 +31202,19 @@
         <v>1.070202803888314</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207014</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I4" t="n">
-        <v>32.1839170478413</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490378</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K4" t="n">
         <v>124.3381075790241</v>
       </c>
       <c r="L4" t="n">
-        <v>159.1099695889953</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M4" t="n">
         <v>167.7591540676927</v>
@@ -31229,7 +31229,7 @@
         <v>129.436164572092</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.6148911510478</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R4" t="n">
         <v>48.12020970937817</v>
@@ -31238,10 +31238,10 @@
         <v>18.65071613685361</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522794</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05837469839390809</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.560534440834391</v>
+        <v>2.560534440834399</v>
       </c>
       <c r="H5" t="n">
-        <v>26.22307334219521</v>
+        <v>26.2230733421953</v>
       </c>
       <c r="I5" t="n">
-        <v>98.71500403026795</v>
+        <v>98.71500403026829</v>
       </c>
       <c r="J5" t="n">
-        <v>217.3221599977681</v>
+        <v>217.3221599977688</v>
       </c>
       <c r="K5" t="n">
-        <v>325.7095828782879</v>
+        <v>325.709582878289</v>
       </c>
       <c r="L5" t="n">
-        <v>404.0715387719735</v>
+        <v>404.0715387719749</v>
       </c>
       <c r="M5" t="n">
-        <v>449.6074431341621</v>
+        <v>449.6074431341636</v>
       </c>
       <c r="N5" t="n">
-        <v>456.8825616141828</v>
+        <v>456.8825616141843</v>
       </c>
       <c r="O5" t="n">
-        <v>431.4212472681358</v>
+        <v>431.4212472681373</v>
       </c>
       <c r="P5" t="n">
-        <v>368.2080532600367</v>
+        <v>368.208053260038</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.508913597655</v>
+        <v>276.508913597656</v>
       </c>
       <c r="R5" t="n">
-        <v>160.8431715690635</v>
+        <v>160.843171569064</v>
       </c>
       <c r="S5" t="n">
-        <v>58.34817857051374</v>
+        <v>58.34817857051394</v>
       </c>
       <c r="T5" t="n">
-        <v>11.20873951475255</v>
+        <v>11.20873951475259</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2048427552667512</v>
+        <v>0.2048427552667519</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.370006705772855</v>
+        <v>1.370006705772859</v>
       </c>
       <c r="H6" t="n">
-        <v>13.23138055312205</v>
+        <v>13.23138055312209</v>
       </c>
       <c r="I6" t="n">
-        <v>47.16909052770575</v>
+        <v>47.1690905277059</v>
       </c>
       <c r="J6" t="n">
-        <v>129.4355896888292</v>
+        <v>129.4355896888297</v>
       </c>
       <c r="K6" t="n">
-        <v>221.2260389756105</v>
+        <v>221.2260389756112</v>
       </c>
       <c r="L6" t="n">
-        <v>297.4657103916016</v>
+        <v>297.4657103916027</v>
       </c>
       <c r="M6" t="n">
-        <v>347.1284534758676</v>
+        <v>347.1284534758687</v>
       </c>
       <c r="N6" t="n">
-        <v>356.3159107264233</v>
+        <v>356.3159107264245</v>
       </c>
       <c r="O6" t="n">
-        <v>325.9594463511405</v>
+        <v>325.9594463511417</v>
       </c>
       <c r="P6" t="n">
-        <v>261.6111927892042</v>
+        <v>261.6111927892051</v>
       </c>
       <c r="Q6" t="n">
-        <v>174.8801542316367</v>
+        <v>174.8801542316373</v>
       </c>
       <c r="R6" t="n">
-        <v>85.0605917847392</v>
+        <v>85.06059178473949</v>
       </c>
       <c r="S6" t="n">
-        <v>25.44727367959665</v>
+        <v>25.44727367959673</v>
       </c>
       <c r="T6" t="n">
-        <v>5.52208843247918</v>
+        <v>5.522088432479198</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09013202011663521</v>
+        <v>0.09013202011663551</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.148567600611985</v>
+        <v>1.148567600611988</v>
       </c>
       <c r="H7" t="n">
-        <v>10.21181012180474</v>
+        <v>10.21181012180478</v>
       </c>
       <c r="I7" t="n">
-        <v>34.54056020749497</v>
+        <v>34.54056020749508</v>
       </c>
       <c r="J7" t="n">
-        <v>81.20372936326731</v>
+        <v>81.20372936326758</v>
       </c>
       <c r="K7" t="n">
-        <v>133.4426721438287</v>
+        <v>133.4426721438292</v>
       </c>
       <c r="L7" t="n">
-        <v>170.7606776400764</v>
+        <v>170.7606776400769</v>
       </c>
       <c r="M7" t="n">
-        <v>180.0431921577495</v>
+        <v>180.0431921577502</v>
       </c>
       <c r="N7" t="n">
-        <v>175.7621674645596</v>
+        <v>175.7621674645602</v>
       </c>
       <c r="O7" t="n">
-        <v>162.3448095846831</v>
+        <v>162.3448095846837</v>
       </c>
       <c r="P7" t="n">
-        <v>138.9140305321985</v>
+        <v>138.914030532199</v>
       </c>
       <c r="Q7" t="n">
-        <v>96.17687426579083</v>
+        <v>96.17687426579116</v>
       </c>
       <c r="R7" t="n">
-        <v>51.64377593297159</v>
+        <v>51.64377593297176</v>
       </c>
       <c r="S7" t="n">
-        <v>20.01640082157431</v>
+        <v>20.01640082157438</v>
       </c>
       <c r="T7" t="n">
-        <v>4.907516111705752</v>
+        <v>4.907516111705768</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06264914185156287</v>
+        <v>0.06264914185156309</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181069</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336188</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979358</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491908</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857155</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767395</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730021</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342241</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166611</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190659</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147062</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235318</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745119</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389764</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744855</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347165</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380026</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436511</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575846</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178446</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177255</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040601</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762085</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405686</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378635</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168767</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624144</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997911</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000194</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675767</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654583</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231076</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335784</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
-        <v>119.085617475379</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682324</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227914</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849634</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067965</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154679</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169142</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097488</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759605</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523486</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106958</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529025009</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,22 +31840,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32083,7 +32083,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>339.3493584601592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32095,7 +32095,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558004</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558004</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558004</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.44873736705381</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292152</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012658</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M2" t="n">
-        <v>188.5852654802096</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N2" t="n">
         <v>196.2971847393761</v>
       </c>
       <c r="O2" t="n">
-        <v>171.8879043605651</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P2" t="n">
         <v>111.8528537874005</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130813</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>68.29072693268384</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L3" t="n">
-        <v>138.615755571408</v>
+        <v>205.4003814606438</v>
       </c>
       <c r="M3" t="n">
-        <v>181.310440762227</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N3" t="n">
-        <v>239.807948141505</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O3" t="n">
-        <v>188.7636013047255</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P3" t="n">
         <v>109.7875025528271</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.9666072747242</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,7 +34862,7 @@
         <v>102.0686157531412</v>
       </c>
       <c r="L4" t="n">
-        <v>186.6999948493115</v>
+        <v>126.2075456122968</v>
       </c>
       <c r="M4" t="n">
         <v>207.3430310295333</v>
@@ -34874,10 +34874,10 @@
         <v>175.8534296854534</v>
       </c>
       <c r="P4" t="n">
-        <v>69.67512249932382</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>36.27625547108178</v>
+        <v>36.27625547108252</v>
       </c>
       <c r="K5" t="n">
-        <v>105.6197318333074</v>
+        <v>105.6197318333084</v>
       </c>
       <c r="L5" t="n">
-        <v>168.3051238019862</v>
+        <v>168.3051238019876</v>
       </c>
       <c r="M5" t="n">
-        <v>219.2612099068893</v>
+        <v>219.2612099068909</v>
       </c>
       <c r="N5" t="n">
-        <v>227.4694980175919</v>
+        <v>227.4694980175934</v>
       </c>
       <c r="O5" t="n">
-        <v>201.3230358464491</v>
+        <v>201.3230358464506</v>
       </c>
       <c r="P5" t="n">
-        <v>136.9750575047672</v>
+        <v>136.9750575047684</v>
       </c>
       <c r="Q5" t="n">
-        <v>54.20322372320553</v>
+        <v>54.20322372320649</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.597963022162531</v>
+        <v>2.597963022162986</v>
       </c>
       <c r="K6" t="n">
-        <v>83.3846000012515</v>
+        <v>83.38460000125224</v>
       </c>
       <c r="L6" t="n">
-        <v>158.9113306117275</v>
+        <v>158.9113306117285</v>
       </c>
       <c r="M6" t="n">
-        <v>204.9944195538492</v>
+        <v>204.9944195538504</v>
       </c>
       <c r="N6" t="n">
-        <v>224.97419864309</v>
+        <v>224.9741986430912</v>
       </c>
       <c r="O6" t="n">
-        <v>183.3632019066961</v>
+        <v>183.3632019066972</v>
       </c>
       <c r="P6" t="n">
-        <v>256.3090422208858</v>
+        <v>127.6367853748748</v>
       </c>
       <c r="Q6" t="n">
-        <v>34.89838014561516</v>
+        <v>163.5706369916309</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>111.1731803179459</v>
+        <v>111.1731803179463</v>
       </c>
       <c r="L7" t="n">
-        <v>198.3507029003925</v>
+        <v>198.3507029003931</v>
       </c>
       <c r="M7" t="n">
-        <v>219.6270691195901</v>
+        <v>219.6270691195907</v>
       </c>
       <c r="N7" t="n">
-        <v>219.8943398437881</v>
+        <v>219.8943398437887</v>
       </c>
       <c r="O7" t="n">
-        <v>186.9299374987228</v>
+        <v>186.9299374987233</v>
       </c>
       <c r="P7" t="n">
-        <v>136.192589797092</v>
+        <v>136.1925897970925</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.01483101409644</v>
+        <v>10.01483101409677</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225045</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.564649540735</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067523</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457294</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376332</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949743</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637963</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402567</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939967</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091791</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560642</v>
+        <v>397.6203974676403</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378513</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820418</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928752</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961242</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750402</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308552</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870624</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423496</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831075</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468039</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860251</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295076</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818077</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8817554580544</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>200.7949786802851</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35743,7 +35743,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35810,7 +35810,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191354</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
         <v>426.2724270010451</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326294934</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191263</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
-        <v>256.165419911356</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
-        <v>256.165419911356</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
-        <v>256.165419911356</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
